--- a/data_input/attributes/attributes_catchments_report.xlsx
+++ b/data_input/attributes/attributes_catchments_report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Francisco/Documents/GitHub/seasonal_forecast/data_input/attributes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8CD738-BF22-854C-A5E5-DDF58DF0E027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677DA43A-3218-2D46-AE24-07EA8447A73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="820" windowWidth="28040" windowHeight="17120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attributes_49catchments_ChileCe" sheetId="1" r:id="rId1"/>
@@ -394,7 +394,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="32" x14ac:knownFonts="1">
     <font>
@@ -1058,6 +1058,42 @@
     <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="27" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="27" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1070,46 +1106,10 @@
     <xf numFmtId="2" fontId="23" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="27" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="27" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="28" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="28" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="29" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1469,8 +1469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="141" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:C43"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="141" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -2298,33 +2298,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19" t="s">
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="L2" s="19" t="s">
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="L2" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="20" t="s">
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="U2" s="21"/>
+      <c r="U2" s="37"/>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B3" s="13" t="s">
@@ -2953,32 +2953,32 @@
       <c r="U16" s="18"/>
     </row>
     <row r="17" spans="2:21" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19" t="s">
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="M17" s="20" t="s">
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="M17" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="20" t="s">
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="37"/>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B18" s="13" t="s">
@@ -3519,33 +3519,33 @@
       <c r="U31" s="18"/>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19" t="s">
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="L32" s="19" t="s">
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="L32" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="23"/>
-      <c r="R32" s="23"/>
-      <c r="S32" s="23"/>
-      <c r="T32" s="20" t="s">
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="U32" s="21"/>
+      <c r="U32" s="37"/>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B33" s="13" t="s">
@@ -4174,33 +4174,33 @@
       <c r="U46" s="18"/>
     </row>
     <row r="47" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19" t="s">
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="19"/>
-      <c r="L47" s="19" t="s">
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="35"/>
+      <c r="L47" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="M47" s="19"/>
-      <c r="N47" s="19"/>
-      <c r="O47" s="19"/>
-      <c r="P47" s="19"/>
-      <c r="Q47" s="23"/>
-      <c r="R47" s="23"/>
-      <c r="S47" s="23"/>
-      <c r="T47" s="20" t="s">
+      <c r="M47" s="35"/>
+      <c r="N47" s="35"/>
+      <c r="O47" s="35"/>
+      <c r="P47" s="35"/>
+      <c r="Q47" s="19"/>
+      <c r="R47" s="19"/>
+      <c r="S47" s="19"/>
+      <c r="T47" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="U47" s="21"/>
+      <c r="U47" s="37"/>
     </row>
     <row r="48" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B48" s="13" t="s">
@@ -4792,6 +4792,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="G47:J47"/>
     <mergeCell ref="L47:P47"/>
     <mergeCell ref="T47:U47"/>
     <mergeCell ref="T32:U32"/>
@@ -4800,14 +4808,6 @@
     <mergeCell ref="R17:U17"/>
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="L32:P32"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="G47:J47"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5547,2281 +5547,2281 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF1C9A5E-7539-5844-B4F2-32772CC49946}">
   <dimension ref="A2:AC63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="34"/>
-    <col min="2" max="2" width="15.5" style="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.83203125" style="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5" style="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="34" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="4.83203125" style="34" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" style="34" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5" style="34" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5" style="34" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.83203125" style="34" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="10.83203125" style="34"/>
-    <col min="16" max="16" width="3.5" style="34" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.1640625" style="34" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.33203125" style="34" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.83203125" style="34" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.1640625" style="34" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="31" style="34" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.33203125" style="34" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.5" style="34" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11" style="34" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="10.83203125" style="34"/>
+    <col min="1" max="1" width="10.83203125" style="29"/>
+    <col min="2" max="2" width="15.5" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.83203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="4.83203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5" style="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.83203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="10.83203125" style="29"/>
+    <col min="16" max="16" width="3.5" style="29" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.1640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.33203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.83203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.1640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="31" style="29" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.33203125" style="29" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.5" style="29" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11" style="29" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="10.83203125" style="29"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36" t="s">
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="K3" s="35" t="s">
+      <c r="K3" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="L3" s="35" t="s">
+      <c r="L3" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="37"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="32">
         <v>7.7939999999999996</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="32">
         <v>9.6424249999999994</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="32">
         <v>14.658079000000001</v>
       </c>
-      <c r="F4" s="38">
+      <c r="F4" s="32">
         <v>16.581627000000001</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="32">
         <v>20.504000000000001</v>
       </c>
-      <c r="H4" s="38">
+      <c r="H4" s="32">
         <v>8.1910000000000007</v>
       </c>
-      <c r="I4" s="38">
+      <c r="I4" s="32">
         <v>9.9318179999999998</v>
       </c>
-      <c r="J4" s="38">
+      <c r="J4" s="32">
         <v>14.738341999999999</v>
       </c>
-      <c r="K4" s="38">
+      <c r="K4" s="32">
         <v>17.602153000000001</v>
       </c>
-      <c r="L4" s="38">
+      <c r="L4" s="32">
         <v>21.187000000000001</v>
       </c>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="37"/>
-      <c r="X4" s="37"/>
-      <c r="Y4" s="37"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A5" s="37"/>
-      <c r="B5" s="38" t="s">
+      <c r="A5" s="31"/>
+      <c r="B5" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="32">
         <v>5.0060000000000002</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="32">
         <v>6.9740609999999998</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="32">
         <v>12.789255000000001</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F5" s="32">
         <v>12.81432</v>
       </c>
-      <c r="G5" s="38">
+      <c r="G5" s="32">
         <v>17.606000000000002</v>
       </c>
-      <c r="H5" s="38">
+      <c r="H5" s="32">
         <v>7.2290000000000001</v>
       </c>
-      <c r="I5" s="38">
+      <c r="I5" s="32">
         <v>9.2281329999999997</v>
       </c>
-      <c r="J5" s="38">
+      <c r="J5" s="32">
         <v>14.193657999999999</v>
       </c>
-      <c r="K5" s="38">
+      <c r="K5" s="32">
         <v>15.382426000000001</v>
       </c>
-      <c r="L5" s="38">
+      <c r="L5" s="32">
         <v>20.198</v>
       </c>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37"/>
-      <c r="T5" s="37"/>
-      <c r="U5" s="37"/>
-      <c r="V5" s="37"/>
-      <c r="W5" s="37"/>
-      <c r="X5" s="37"/>
-      <c r="Y5" s="37"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="31"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A6" s="37"/>
-      <c r="B6" s="38" t="s">
+      <c r="A6" s="31"/>
+      <c r="B6" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="32">
         <v>3.4780000000000002</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="32">
         <v>4.8157310000000004</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="32">
         <v>7.719462</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="32">
         <v>8.4373319999999996</v>
       </c>
-      <c r="G6" s="38">
+      <c r="G6" s="32">
         <v>11.695</v>
       </c>
-      <c r="H6" s="38">
+      <c r="H6" s="32">
         <v>4.5469999999999997</v>
       </c>
-      <c r="I6" s="38">
+      <c r="I6" s="32">
         <v>6.0395120000000002</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J6" s="32">
         <v>9.7330550000000002</v>
       </c>
-      <c r="K6" s="38">
+      <c r="K6" s="32">
         <v>10.013590000000001</v>
       </c>
-      <c r="L6" s="38">
+      <c r="L6" s="32">
         <v>14.657</v>
       </c>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="37"/>
-      <c r="X6" s="37"/>
-      <c r="Y6" s="37"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="31"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A7" s="37"/>
-      <c r="B7" s="38" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="32">
         <v>2.3929999999999998</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="32">
         <v>3.2692009999999998</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="32">
         <v>5.5408369999999998</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="32">
         <v>7.6212590000000002</v>
       </c>
-      <c r="G7" s="38">
+      <c r="G7" s="32">
         <v>9.0489999999999995</v>
       </c>
-      <c r="H7" s="38">
+      <c r="H7" s="32">
         <v>3.3330000000000002</v>
       </c>
-      <c r="I7" s="38">
+      <c r="I7" s="32">
         <v>3.8738389999999998</v>
       </c>
-      <c r="J7" s="38">
+      <c r="J7" s="32">
         <v>6.3967770000000002</v>
       </c>
-      <c r="K7" s="38">
+      <c r="K7" s="32">
         <v>9.9609349999999992</v>
       </c>
-      <c r="L7" s="38">
+      <c r="L7" s="32">
         <v>10.237</v>
       </c>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="37"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="37"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="31"/>
+      <c r="X7" s="31"/>
+      <c r="Y7" s="31"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A8" s="37"/>
-      <c r="B8" s="38" t="s">
+      <c r="A8" s="31"/>
+      <c r="B8" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="32">
         <v>1.708</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="32">
         <v>2.1579660000000001</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="32">
         <v>2.8160859999999999</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="32">
         <v>7.1276760000000001</v>
       </c>
-      <c r="G8" s="38">
+      <c r="G8" s="32">
         <v>7.44</v>
       </c>
-      <c r="H8" s="38">
+      <c r="H8" s="32">
         <v>2.327</v>
       </c>
-      <c r="I8" s="38">
+      <c r="I8" s="32">
         <v>2.72201</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="32">
         <v>4.4782400000000004</v>
       </c>
-      <c r="K8" s="38">
+      <c r="K8" s="32">
         <v>10.640527000000001</v>
       </c>
-      <c r="L8" s="38">
+      <c r="L8" s="32">
         <v>10.989000000000001</v>
       </c>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="37"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="31"/>
+      <c r="Y8" s="31"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A9" s="37"/>
-      <c r="B9" s="38" t="s">
+      <c r="A9" s="31"/>
+      <c r="B9" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="32">
         <v>1.615</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="32">
         <v>1.759674</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="32">
         <v>1.9605140000000001</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F9" s="32">
         <v>5.747439</v>
       </c>
-      <c r="G9" s="38">
+      <c r="G9" s="32">
         <v>7.492</v>
       </c>
-      <c r="H9" s="38">
+      <c r="H9" s="32">
         <v>1.982</v>
       </c>
-      <c r="I9" s="38">
+      <c r="I9" s="32">
         <v>2.000683</v>
       </c>
-      <c r="J9" s="38">
+      <c r="J9" s="32">
         <v>2.7604760000000002</v>
       </c>
-      <c r="K9" s="38">
+      <c r="K9" s="32">
         <v>5.9289170000000002</v>
       </c>
-      <c r="L9" s="38">
+      <c r="L9" s="32">
         <v>10.238</v>
       </c>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37"/>
-      <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="37"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="31"/>
+      <c r="X9" s="31"/>
+      <c r="Y9" s="31"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A10" s="37"/>
-      <c r="B10" s="38" t="s">
+      <c r="A10" s="31"/>
+      <c r="B10" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="32">
         <v>2.5129999999999999</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="32">
         <v>2.790988</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="32">
         <v>2.9196439999999999</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="32">
         <v>3.8662839999999998</v>
       </c>
-      <c r="G10" s="38">
+      <c r="G10" s="32">
         <v>7.0739999999999998</v>
       </c>
-      <c r="H10" s="38">
+      <c r="H10" s="32">
         <v>2.4239999999999999</v>
       </c>
-      <c r="I10" s="38">
+      <c r="I10" s="32">
         <v>2.9338470000000001</v>
       </c>
-      <c r="J10" s="38">
+      <c r="J10" s="32">
         <v>3.212113</v>
       </c>
-      <c r="K10" s="38">
+      <c r="K10" s="32">
         <v>3.7710499999999998</v>
       </c>
-      <c r="L10" s="38">
+      <c r="L10" s="32">
         <v>7.46</v>
       </c>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="37"/>
-      <c r="U10" s="37"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="37"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="31"/>
+      <c r="W10" s="31"/>
+      <c r="X10" s="31"/>
+      <c r="Y10" s="31"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A11" s="37"/>
-      <c r="B11" s="38" t="s">
+      <c r="A11" s="31"/>
+      <c r="B11" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="32">
         <v>4.5590000000000002</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="32">
         <v>5.7431099999999997</v>
       </c>
-      <c r="E11" s="38">
+      <c r="E11" s="32">
         <v>6.3051069999999996</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F11" s="32">
         <v>6.6055799999999998</v>
       </c>
-      <c r="G11" s="38">
+      <c r="G11" s="32">
         <v>6.7320000000000002</v>
       </c>
-      <c r="H11" s="38">
+      <c r="H11" s="32">
         <v>5.6849999999999996</v>
       </c>
-      <c r="I11" s="38">
+      <c r="I11" s="32">
         <v>5.7307119999999996</v>
       </c>
-      <c r="J11" s="38">
+      <c r="J11" s="32">
         <v>5.7980590000000003</v>
       </c>
-      <c r="K11" s="38">
+      <c r="K11" s="32">
         <v>6.087993</v>
       </c>
-      <c r="L11" s="38">
+      <c r="L11" s="32">
         <v>9.4019999999999992</v>
       </c>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="37"/>
-      <c r="U11" s="37"/>
-      <c r="V11" s="37"/>
-      <c r="W11" s="37"/>
-      <c r="X11" s="37"/>
-      <c r="Y11" s="37"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="31"/>
+      <c r="X11" s="31"/>
+      <c r="Y11" s="31"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A12" s="37"/>
-      <c r="B12" s="38" t="s">
+      <c r="A12" s="31"/>
+      <c r="B12" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C12" s="32">
         <v>2.8450000000000002</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="32">
         <v>6.3573180000000002</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="32">
         <v>7.2570209999999999</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="32">
         <v>8.7636020000000006</v>
       </c>
-      <c r="G12" s="38">
+      <c r="G12" s="32">
         <v>10.388999999999999</v>
       </c>
-      <c r="H12" s="38">
+      <c r="H12" s="32">
         <v>2.71</v>
       </c>
-      <c r="I12" s="38">
+      <c r="I12" s="32">
         <v>6.8610110000000004</v>
       </c>
-      <c r="J12" s="38">
+      <c r="J12" s="32">
         <v>7.0848800000000001</v>
       </c>
-      <c r="K12" s="38">
+      <c r="K12" s="32">
         <v>10.156824</v>
       </c>
-      <c r="L12" s="38">
+      <c r="L12" s="32">
         <v>11.693</v>
       </c>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
-      <c r="T12" s="37"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="37"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="37"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="31"/>
+      <c r="Y12" s="31"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A13" s="37"/>
-      <c r="B13" s="38" t="s">
+      <c r="A13" s="31"/>
+      <c r="B13" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="38">
+      <c r="C13" s="32">
         <v>2.1459999999999999</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="32">
         <v>2.6261540000000001</v>
       </c>
-      <c r="E13" s="38">
+      <c r="E13" s="32">
         <v>4.0838039999999998</v>
       </c>
-      <c r="F13" s="38">
+      <c r="F13" s="32">
         <v>9.4196460000000002</v>
       </c>
-      <c r="G13" s="38">
+      <c r="G13" s="32">
         <v>11.221</v>
       </c>
-      <c r="H13" s="38">
+      <c r="H13" s="32">
         <v>2.0470000000000002</v>
       </c>
-      <c r="I13" s="38">
+      <c r="I13" s="32">
         <v>2.5564460000000002</v>
       </c>
-      <c r="J13" s="38">
+      <c r="J13" s="32">
         <v>4.3137990000000004</v>
       </c>
-      <c r="K13" s="38">
+      <c r="K13" s="32">
         <v>9.2597710000000006</v>
       </c>
-      <c r="L13" s="38">
+      <c r="L13" s="32">
         <v>11.361000000000001</v>
       </c>
-      <c r="O13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="37"/>
+      <c r="O13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="31"/>
+      <c r="Y13" s="31"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A14" s="37"/>
-      <c r="B14" s="38" t="s">
+      <c r="A14" s="31"/>
+      <c r="B14" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="C14" s="38">
+      <c r="C14" s="32">
         <v>1.647</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="32">
         <v>2.3276690000000002</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="32">
         <v>2.4766490000000001</v>
       </c>
-      <c r="F14" s="38">
+      <c r="F14" s="32">
         <v>22.517628999999999</v>
       </c>
-      <c r="G14" s="38">
+      <c r="G14" s="32">
         <v>26.344000000000001</v>
       </c>
-      <c r="H14" s="38">
+      <c r="H14" s="32">
         <v>1.6839999999999999</v>
       </c>
-      <c r="I14" s="38">
+      <c r="I14" s="32">
         <v>1.827963</v>
       </c>
-      <c r="J14" s="38">
+      <c r="J14" s="32">
         <v>2.7844669999999998</v>
       </c>
-      <c r="K14" s="38">
+      <c r="K14" s="32">
         <v>22.418880999999999</v>
       </c>
-      <c r="L14" s="38">
+      <c r="L14" s="32">
         <v>26.195</v>
       </c>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="37"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="31"/>
+      <c r="Y15" s="31"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36" t="s">
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="37"/>
-      <c r="U16" s="37"/>
-      <c r="V16" s="37"/>
-      <c r="W16" s="37"/>
-      <c r="X16" s="37"/>
-      <c r="Y16" s="37"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="31"/>
+      <c r="Y16" s="31"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A17" s="37"/>
-      <c r="B17" s="35" t="s">
+      <c r="A17" s="31"/>
+      <c r="B17" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="F17" s="35" t="s">
+      <c r="F17" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="G17" s="35" t="s">
+      <c r="G17" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="H17" s="35" t="s">
+      <c r="H17" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="I17" s="35" t="s">
+      <c r="I17" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="J17" s="35" t="s">
+      <c r="J17" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="K17" s="35" t="s">
+      <c r="K17" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="L17" s="35" t="s">
+      <c r="L17" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="37"/>
-      <c r="U17" s="37"/>
-      <c r="V17" s="37"/>
-      <c r="W17" s="37"/>
-      <c r="X17" s="37"/>
-      <c r="Y17" s="37"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="31"/>
+      <c r="V17" s="31"/>
+      <c r="W17" s="31"/>
+      <c r="X17" s="31"/>
+      <c r="Y17" s="31"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A18" s="37"/>
-      <c r="B18" s="38" t="s">
+      <c r="A18" s="31"/>
+      <c r="B18" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="38">
+      <c r="C18" s="32">
         <v>3.9E-2</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="32">
         <v>8.5538840000000005E-2</v>
       </c>
-      <c r="E18" s="38">
+      <c r="E18" s="32">
         <v>0.15208447999999999</v>
       </c>
-      <c r="F18" s="38">
+      <c r="F18" s="32">
         <v>0.16074712999999999</v>
       </c>
-      <c r="G18" s="38">
+      <c r="G18" s="32">
         <v>0.55200000000000005</v>
       </c>
-      <c r="H18" s="38">
+      <c r="H18" s="32">
         <v>0.314</v>
       </c>
-      <c r="I18" s="38">
+      <c r="I18" s="32">
         <v>0.31672755000000002</v>
       </c>
-      <c r="J18" s="38">
+      <c r="J18" s="32">
         <v>0.35364674000000001</v>
       </c>
-      <c r="K18" s="38">
+      <c r="K18" s="32">
         <v>0.54226867999999995</v>
       </c>
-      <c r="L18" s="38">
+      <c r="L18" s="32">
         <v>0.63100000000000001</v>
       </c>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="37"/>
-      <c r="S18" s="37"/>
-      <c r="T18" s="37"/>
-      <c r="U18" s="37"/>
-      <c r="V18" s="37"/>
-      <c r="W18" s="37"/>
-      <c r="X18" s="37"/>
-      <c r="Y18" s="37"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="31"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="31"/>
+      <c r="Y18" s="31"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A19" s="37"/>
-      <c r="B19" s="38" t="s">
+      <c r="A19" s="31"/>
+      <c r="B19" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="38">
+      <c r="C19" s="32">
         <v>6.3E-2</v>
       </c>
-      <c r="D19" s="38">
+      <c r="D19" s="32">
         <v>0.13702286</v>
       </c>
-      <c r="E19" s="38">
+      <c r="E19" s="32">
         <v>0.23252974000000001</v>
       </c>
-      <c r="F19" s="38">
+      <c r="F19" s="32">
         <v>0.25986398999999999</v>
       </c>
-      <c r="G19" s="38">
+      <c r="G19" s="32">
         <v>0.30199999999999999</v>
       </c>
-      <c r="H19" s="38">
+      <c r="H19" s="32">
         <v>1E-3</v>
       </c>
-      <c r="I19" s="38">
+      <c r="I19" s="32">
         <v>1.209231E-2</v>
       </c>
-      <c r="J19" s="38">
+      <c r="J19" s="32">
         <v>1.3383839999999999E-2</v>
       </c>
-      <c r="K19" s="38">
+      <c r="K19" s="32">
         <v>2.3110840000000001E-2</v>
       </c>
-      <c r="L19" s="38">
+      <c r="L19" s="32">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="37"/>
-      <c r="U19" s="37"/>
-      <c r="V19" s="37"/>
-      <c r="W19" s="37"/>
-      <c r="X19" s="37"/>
-      <c r="Y19" s="37"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="31"/>
+      <c r="W19" s="31"/>
+      <c r="X19" s="31"/>
+      <c r="Y19" s="31"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A20" s="37"/>
-      <c r="B20" s="38" t="s">
+      <c r="A20" s="31"/>
+      <c r="B20" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="38">
+      <c r="C20" s="32">
         <v>0.32600000000000001</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20" s="32">
         <v>0.36186274000000002</v>
       </c>
-      <c r="E20" s="38">
+      <c r="E20" s="32">
         <v>0.43396129999999999</v>
       </c>
-      <c r="F20" s="38">
+      <c r="F20" s="32">
         <v>0.45840829999999999</v>
       </c>
-      <c r="G20" s="38">
+      <c r="G20" s="32">
         <v>0.46200000000000002</v>
       </c>
-      <c r="H20" s="38">
+      <c r="H20" s="32">
         <v>0.20799999999999999</v>
       </c>
-      <c r="I20" s="38">
+      <c r="I20" s="32">
         <v>0.23059138000000001</v>
       </c>
-      <c r="J20" s="38">
+      <c r="J20" s="32">
         <v>0.32835091999999999</v>
       </c>
-      <c r="K20" s="38">
+      <c r="K20" s="32">
         <v>0.35942030000000003</v>
       </c>
-      <c r="L20" s="38">
+      <c r="L20" s="32">
         <v>0.372</v>
       </c>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="37"/>
-      <c r="S20" s="37"/>
-      <c r="T20" s="37"/>
-      <c r="U20" s="37"/>
-      <c r="V20" s="37"/>
-      <c r="W20" s="37"/>
-      <c r="X20" s="37"/>
-      <c r="Y20" s="37"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="31"/>
+      <c r="W20" s="31"/>
+      <c r="X20" s="31"/>
+      <c r="Y20" s="31"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A21" s="37"/>
-      <c r="B21" s="38" t="s">
+      <c r="A21" s="31"/>
+      <c r="B21" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="38">
+      <c r="C21" s="32">
         <v>0.32400000000000001</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21" s="32">
         <v>0.37394155000000001</v>
       </c>
-      <c r="E21" s="38">
+      <c r="E21" s="32">
         <v>0.57287410000000005</v>
       </c>
-      <c r="F21" s="38">
+      <c r="F21" s="32">
         <v>0.60000903999999999</v>
       </c>
-      <c r="G21" s="38">
+      <c r="G21" s="32">
         <v>0.61499999999999999</v>
       </c>
-      <c r="H21" s="38">
+      <c r="H21" s="32">
         <v>0.214</v>
       </c>
-      <c r="I21" s="38">
+      <c r="I21" s="32">
         <v>0.32855751999999999</v>
       </c>
-      <c r="J21" s="38">
+      <c r="J21" s="32">
         <v>0.48606859000000002</v>
       </c>
-      <c r="K21" s="38">
+      <c r="K21" s="32">
         <v>0.53108021999999999</v>
       </c>
-      <c r="L21" s="38">
+      <c r="L21" s="32">
         <v>0.56200000000000006</v>
       </c>
-      <c r="O21" s="37"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="37"/>
-      <c r="S21" s="37"/>
-      <c r="T21" s="37"/>
-      <c r="U21" s="37"/>
-      <c r="V21" s="37"/>
-      <c r="W21" s="37"/>
-      <c r="X21" s="37"/>
-      <c r="Y21" s="37"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="31"/>
+      <c r="V21" s="31"/>
+      <c r="W21" s="31"/>
+      <c r="X21" s="31"/>
+      <c r="Y21" s="31"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A22" s="37"/>
-      <c r="B22" s="38" t="s">
+      <c r="A22" s="31"/>
+      <c r="B22" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="38">
+      <c r="C22" s="32">
         <v>0.34799999999999998</v>
       </c>
-      <c r="D22" s="38">
+      <c r="D22" s="32">
         <v>0.47148666</v>
       </c>
-      <c r="E22" s="38">
+      <c r="E22" s="32">
         <v>0.73003209000000002</v>
       </c>
-      <c r="F22" s="38">
+      <c r="F22" s="32">
         <v>0.73373608999999995</v>
       </c>
-      <c r="G22" s="38">
+      <c r="G22" s="32">
         <v>0.73799999999999999</v>
       </c>
-      <c r="H22" s="38">
+      <c r="H22" s="32">
         <v>0.13</v>
       </c>
-      <c r="I22" s="38">
+      <c r="I22" s="32">
         <v>0.31710255999999998</v>
       </c>
-      <c r="J22" s="38">
+      <c r="J22" s="32">
         <v>0.62272896</v>
       </c>
-      <c r="K22" s="38">
+      <c r="K22" s="32">
         <v>0.66303528</v>
       </c>
-      <c r="L22" s="38">
+      <c r="L22" s="32">
         <v>0.68500000000000005</v>
       </c>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="37"/>
-      <c r="S22" s="37"/>
-      <c r="T22" s="37"/>
-      <c r="U22" s="37"/>
-      <c r="V22" s="37"/>
-      <c r="W22" s="37"/>
-      <c r="X22" s="37"/>
-      <c r="Y22" s="37"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="31"/>
+      <c r="W22" s="31"/>
+      <c r="X22" s="31"/>
+      <c r="Y22" s="31"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A23" s="37"/>
-      <c r="B23" s="38" t="s">
+      <c r="A23" s="31"/>
+      <c r="B23" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="38">
+      <c r="C23" s="32">
         <v>0.439</v>
       </c>
-      <c r="D23" s="38">
+      <c r="D23" s="32">
         <v>0.56759024000000002</v>
       </c>
-      <c r="E23" s="38">
+      <c r="E23" s="32">
         <v>0.71135448000000001</v>
       </c>
-      <c r="F23" s="38">
+      <c r="F23" s="32">
         <v>0.82209639999999995</v>
       </c>
-      <c r="G23" s="38">
+      <c r="G23" s="32">
         <v>0.82699999999999996</v>
       </c>
-      <c r="H23" s="38">
+      <c r="H23" s="32">
         <v>0.26200000000000001</v>
       </c>
-      <c r="I23" s="38">
+      <c r="I23" s="32">
         <v>0.55179624999999999</v>
       </c>
-      <c r="J23" s="38">
+      <c r="J23" s="32">
         <v>0.66783813999999997</v>
       </c>
-      <c r="K23" s="38">
+      <c r="K23" s="32">
         <v>0.78696977999999995</v>
       </c>
-      <c r="L23" s="38">
+      <c r="L23" s="32">
         <v>0.79700000000000004</v>
       </c>
-      <c r="O23" s="37"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="37"/>
-      <c r="S23" s="37"/>
-      <c r="T23" s="37"/>
-      <c r="U23" s="37"/>
-      <c r="V23" s="37"/>
-      <c r="W23" s="37"/>
-      <c r="X23" s="37"/>
-      <c r="Y23" s="37"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="31"/>
+      <c r="T23" s="31"/>
+      <c r="U23" s="31"/>
+      <c r="V23" s="31"/>
+      <c r="W23" s="31"/>
+      <c r="X23" s="31"/>
+      <c r="Y23" s="31"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A24" s="37"/>
-      <c r="B24" s="38" t="s">
+      <c r="A24" s="31"/>
+      <c r="B24" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="38">
+      <c r="C24" s="32">
         <v>0.46800000000000003</v>
       </c>
-      <c r="D24" s="38">
+      <c r="D24" s="32">
         <v>0.67406166999999995</v>
       </c>
-      <c r="E24" s="38">
+      <c r="E24" s="32">
         <v>0.68073813000000005</v>
       </c>
-      <c r="F24" s="38">
+      <c r="F24" s="32">
         <v>0.79488583999999995</v>
       </c>
-      <c r="G24" s="38">
+      <c r="G24" s="32">
         <v>0.82299999999999995</v>
       </c>
-      <c r="H24" s="38">
+      <c r="H24" s="32">
         <v>0.44</v>
       </c>
-      <c r="I24" s="38">
+      <c r="I24" s="32">
         <v>0.64358271</v>
       </c>
-      <c r="J24" s="38">
+      <c r="J24" s="32">
         <v>0.68139654000000005</v>
       </c>
-      <c r="K24" s="38">
+      <c r="K24" s="32">
         <v>0.78346439000000001</v>
       </c>
-      <c r="L24" s="38">
+      <c r="L24" s="32">
         <v>0.78400000000000003</v>
       </c>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="37"/>
-      <c r="S24" s="37"/>
-      <c r="T24" s="37"/>
-      <c r="U24" s="37"/>
-      <c r="V24" s="37"/>
-      <c r="W24" s="37"/>
-      <c r="X24" s="37"/>
-      <c r="Y24" s="37"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="31"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="31"/>
+      <c r="V24" s="31"/>
+      <c r="W24" s="31"/>
+      <c r="X24" s="31"/>
+      <c r="Y24" s="31"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A25" s="37"/>
-      <c r="B25" s="38" t="s">
+      <c r="A25" s="31"/>
+      <c r="B25" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="C25" s="38">
+      <c r="C25" s="32">
         <v>0.377</v>
       </c>
-      <c r="D25" s="38">
+      <c r="D25" s="32">
         <v>0.61915503999999999</v>
       </c>
-      <c r="E25" s="38">
+      <c r="E25" s="32">
         <v>0.61954387</v>
       </c>
-      <c r="F25" s="38">
+      <c r="F25" s="32">
         <v>0.62556794000000004</v>
       </c>
-      <c r="G25" s="38">
+      <c r="G25" s="32">
         <v>0.73799999999999999</v>
       </c>
-      <c r="H25" s="38">
+      <c r="H25" s="32">
         <v>0.38</v>
       </c>
-      <c r="I25" s="38">
+      <c r="I25" s="32">
         <v>0.52165589999999995</v>
       </c>
-      <c r="J25" s="38">
+      <c r="J25" s="32">
         <v>0.52971942999999999</v>
       </c>
-      <c r="K25" s="38">
+      <c r="K25" s="32">
         <v>0.63087819000000001</v>
       </c>
-      <c r="L25" s="38">
+      <c r="L25" s="32">
         <v>0.73699999999999999</v>
       </c>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
-      <c r="S25" s="37"/>
-      <c r="T25" s="37"/>
-      <c r="U25" s="37"/>
-      <c r="V25" s="37"/>
-      <c r="W25" s="37"/>
-      <c r="X25" s="37"/>
-      <c r="Y25" s="37"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="31"/>
+      <c r="S25" s="31"/>
+      <c r="T25" s="31"/>
+      <c r="U25" s="31"/>
+      <c r="V25" s="31"/>
+      <c r="W25" s="31"/>
+      <c r="X25" s="31"/>
+      <c r="Y25" s="31"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A26" s="37"/>
-      <c r="B26" s="38" t="s">
+      <c r="A26" s="31"/>
+      <c r="B26" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="C26" s="38">
+      <c r="C26" s="32">
         <v>0.214</v>
       </c>
-      <c r="D26" s="38">
+      <c r="D26" s="32">
         <v>0.28553705000000001</v>
       </c>
-      <c r="E26" s="38">
+      <c r="E26" s="32">
         <v>0.51520261000000001</v>
       </c>
-      <c r="F26" s="38">
+      <c r="F26" s="32">
         <v>0.67371698000000002</v>
       </c>
-      <c r="G26" s="38">
+      <c r="G26" s="32">
         <v>0.747</v>
       </c>
-      <c r="H26" s="38">
+      <c r="H26" s="32">
         <v>0.182</v>
       </c>
-      <c r="I26" s="38">
+      <c r="I26" s="32">
         <v>0.27582382999999999</v>
       </c>
-      <c r="J26" s="38">
+      <c r="J26" s="32">
         <v>0.35909755999999998</v>
       </c>
-      <c r="K26" s="38">
+      <c r="K26" s="32">
         <v>0.70699033</v>
       </c>
-      <c r="L26" s="38">
+      <c r="L26" s="32">
         <v>0.71699999999999997</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="38">
+      <c r="C27" s="32">
         <v>0.02</v>
       </c>
-      <c r="D27" s="38">
+      <c r="D27" s="32">
         <v>0.23378313000000001</v>
       </c>
-      <c r="E27" s="38">
+      <c r="E27" s="32">
         <v>0.61750324999999995</v>
       </c>
-      <c r="F27" s="38">
+      <c r="F27" s="32">
         <v>0.71490615999999996</v>
       </c>
-      <c r="G27" s="38">
+      <c r="G27" s="32">
         <v>0.754</v>
       </c>
-      <c r="H27" s="38">
+      <c r="H27" s="32">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="I27" s="38">
+      <c r="I27" s="32">
         <v>0.2369849</v>
       </c>
-      <c r="J27" s="38">
+      <c r="J27" s="32">
         <v>0.55734234999999999</v>
       </c>
-      <c r="K27" s="38">
+      <c r="K27" s="32">
         <v>0.69038927999999999</v>
       </c>
-      <c r="L27" s="38">
+      <c r="L27" s="32">
         <v>0.75800000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="38">
+      <c r="C28" s="32">
         <v>0.01</v>
       </c>
-      <c r="D28" s="38">
+      <c r="D28" s="32">
         <v>6.2618649999999998E-2</v>
       </c>
-      <c r="E28" s="38">
+      <c r="E28" s="32">
         <v>0.55795379000000001</v>
       </c>
-      <c r="F28" s="38">
+      <c r="F28" s="32">
         <v>0.64599609000000002</v>
       </c>
-      <c r="G28" s="38">
+      <c r="G28" s="32">
         <v>0.78400000000000003</v>
       </c>
-      <c r="H28" s="38">
+      <c r="H28" s="32">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="I28" s="38">
+      <c r="I28" s="32">
         <v>6.8954539999999995E-2</v>
       </c>
-      <c r="J28" s="38">
+      <c r="J28" s="32">
         <v>0.54548940000000001</v>
       </c>
-      <c r="K28" s="38">
+      <c r="K28" s="32">
         <v>0.56699001999999998</v>
       </c>
-      <c r="L28" s="38">
+      <c r="L28" s="32">
         <v>0.78200000000000003</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="R29" s="37"/>
-      <c r="S29" s="37"/>
-      <c r="T29" s="37"/>
-      <c r="U29" s="37"/>
-      <c r="V29" s="37"/>
-      <c r="W29" s="37"/>
-      <c r="X29" s="37"/>
-      <c r="Y29" s="37"/>
-      <c r="Z29" s="37"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="31"/>
+      <c r="T29" s="31"/>
+      <c r="U29" s="31"/>
+      <c r="V29" s="31"/>
+      <c r="W29" s="31"/>
+      <c r="X29" s="31"/>
+      <c r="Y29" s="31"/>
+      <c r="Z29" s="31"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36" t="s">
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
-      <c r="R30" s="37"/>
-      <c r="S30" s="37"/>
-      <c r="T30" s="37"/>
-      <c r="U30" s="37"/>
-      <c r="V30" s="37"/>
-      <c r="W30" s="37"/>
-      <c r="X30" s="37"/>
-      <c r="Y30" s="37"/>
-      <c r="Z30" s="37"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="31"/>
+      <c r="U30" s="31"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="31"/>
+      <c r="X30" s="31"/>
+      <c r="Y30" s="31"/>
+      <c r="Z30" s="31"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="D31" s="35" t="s">
+      <c r="D31" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="E31" s="35" t="s">
+      <c r="E31" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="F31" s="35" t="s">
+      <c r="F31" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="G31" s="35" t="s">
+      <c r="G31" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="H31" s="35" t="s">
+      <c r="H31" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="I31" s="35" t="s">
+      <c r="I31" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="J31" s="35" t="s">
+      <c r="J31" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="K31" s="35" t="s">
+      <c r="K31" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="L31" s="35" t="s">
+      <c r="L31" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="R31" s="37"/>
-      <c r="S31" s="37"/>
-      <c r="T31" s="37"/>
-      <c r="U31" s="37"/>
-      <c r="V31" s="37"/>
-      <c r="W31" s="37"/>
-      <c r="X31" s="37"/>
-      <c r="Y31" s="37"/>
-      <c r="Z31" s="37"/>
+      <c r="R31" s="31"/>
+      <c r="S31" s="31"/>
+      <c r="T31" s="31"/>
+      <c r="U31" s="31"/>
+      <c r="V31" s="31"/>
+      <c r="W31" s="31"/>
+      <c r="X31" s="31"/>
+      <c r="Y31" s="31"/>
+      <c r="Z31" s="31"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="B32" s="38" t="s">
+      <c r="B32" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="C32" s="38">
+      <c r="C32" s="32">
         <v>187.47800000000001</v>
       </c>
-      <c r="D32" s="38">
+      <c r="D32" s="32">
         <v>249.189562</v>
       </c>
-      <c r="E32" s="38">
+      <c r="E32" s="32">
         <v>257.50432000000001</v>
       </c>
-      <c r="F32" s="38">
+      <c r="F32" s="32">
         <v>326.47055</v>
       </c>
-      <c r="G32" s="38">
+      <c r="G32" s="32">
         <v>337.94900000000001</v>
       </c>
-      <c r="H32" s="38">
+      <c r="H32" s="32">
         <v>191.535</v>
       </c>
-      <c r="I32" s="38">
+      <c r="I32" s="32">
         <v>249.221564</v>
       </c>
-      <c r="J32" s="38">
+      <c r="J32" s="32">
         <v>255.13784999999999</v>
       </c>
-      <c r="K32" s="38">
+      <c r="K32" s="32">
         <v>329.40215999999998</v>
       </c>
-      <c r="L32" s="38">
+      <c r="L32" s="32">
         <v>331.62299999999999</v>
       </c>
-      <c r="R32" s="37"/>
-      <c r="S32" s="37"/>
-      <c r="T32" s="37"/>
-      <c r="U32" s="37"/>
-      <c r="V32" s="37"/>
-      <c r="W32" s="37"/>
-      <c r="X32" s="37"/>
-      <c r="Y32" s="37"/>
-      <c r="Z32" s="37"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="31"/>
+      <c r="T32" s="31"/>
+      <c r="U32" s="31"/>
+      <c r="V32" s="31"/>
+      <c r="W32" s="31"/>
+      <c r="X32" s="31"/>
+      <c r="Y32" s="31"/>
+      <c r="Z32" s="31"/>
     </row>
     <row r="33" spans="2:29" x14ac:dyDescent="0.15">
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="38">
+      <c r="C33" s="32">
         <v>172.376</v>
       </c>
-      <c r="D33" s="38">
+      <c r="D33" s="32">
         <v>210.304227</v>
       </c>
-      <c r="E33" s="38">
+      <c r="E33" s="32">
         <v>234.18637000000001</v>
       </c>
-      <c r="F33" s="38">
+      <c r="F33" s="32">
         <v>253.9615</v>
       </c>
-      <c r="G33" s="38">
+      <c r="G33" s="32">
         <v>262.45100000000002</v>
       </c>
-      <c r="H33" s="38">
+      <c r="H33" s="32">
         <v>192.13499999999999</v>
       </c>
-      <c r="I33" s="38">
+      <c r="I33" s="32">
         <v>237.06840399999999</v>
       </c>
-      <c r="J33" s="38">
+      <c r="J33" s="32">
         <v>260.17523999999997</v>
       </c>
-      <c r="K33" s="38">
+      <c r="K33" s="32">
         <v>305.15329000000003</v>
       </c>
-      <c r="L33" s="38">
+      <c r="L33" s="32">
         <v>312.49200000000002</v>
       </c>
-      <c r="R33" s="37"/>
-      <c r="S33" s="37"/>
-      <c r="T33" s="37"/>
-      <c r="U33" s="37"/>
-      <c r="V33" s="37"/>
-      <c r="W33" s="37"/>
-      <c r="X33" s="37"/>
-      <c r="Y33" s="37"/>
-      <c r="Z33" s="37"/>
+      <c r="R33" s="31"/>
+      <c r="S33" s="31"/>
+      <c r="T33" s="31"/>
+      <c r="U33" s="31"/>
+      <c r="V33" s="31"/>
+      <c r="W33" s="31"/>
+      <c r="X33" s="31"/>
+      <c r="Y33" s="31"/>
+      <c r="Z33" s="31"/>
     </row>
     <row r="34" spans="2:29" x14ac:dyDescent="0.15">
-      <c r="B34" s="38" t="s">
+      <c r="B34" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="38">
+      <c r="C34" s="32">
         <v>161.99700000000001</v>
       </c>
-      <c r="D34" s="38">
+      <c r="D34" s="32">
         <v>176.76411899999999</v>
       </c>
-      <c r="E34" s="38">
+      <c r="E34" s="32">
         <v>207.38670999999999</v>
       </c>
-      <c r="F34" s="38">
+      <c r="F34" s="32">
         <v>230.9923</v>
       </c>
-      <c r="G34" s="38">
+      <c r="G34" s="32">
         <v>240.114</v>
       </c>
-      <c r="H34" s="38">
+      <c r="H34" s="32">
         <v>173.89599999999999</v>
       </c>
-      <c r="I34" s="38">
+      <c r="I34" s="32">
         <v>189.99350799999999</v>
       </c>
-      <c r="J34" s="38">
+      <c r="J34" s="32">
         <v>237.74446</v>
       </c>
-      <c r="K34" s="38">
+      <c r="K34" s="32">
         <v>253.81191999999999</v>
       </c>
-      <c r="L34" s="38">
+      <c r="L34" s="32">
         <v>263.99200000000002</v>
       </c>
-      <c r="R34" s="37"/>
-      <c r="S34" s="37"/>
-      <c r="T34" s="37"/>
-      <c r="U34" s="37"/>
-      <c r="V34" s="37"/>
-      <c r="W34" s="37"/>
-      <c r="X34" s="37"/>
-      <c r="Y34" s="37"/>
-      <c r="Z34" s="37"/>
+      <c r="R34" s="31"/>
+      <c r="S34" s="31"/>
+      <c r="T34" s="31"/>
+      <c r="U34" s="31"/>
+      <c r="V34" s="31"/>
+      <c r="W34" s="31"/>
+      <c r="X34" s="31"/>
+      <c r="Y34" s="31"/>
+      <c r="Z34" s="31"/>
     </row>
     <row r="35" spans="2:29" x14ac:dyDescent="0.15">
-      <c r="B35" s="38" t="s">
+      <c r="B35" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="C35" s="38">
+      <c r="C35" s="32">
         <v>149.749</v>
       </c>
-      <c r="D35" s="38">
+      <c r="D35" s="32">
         <v>151.03002499999999</v>
       </c>
-      <c r="E35" s="38">
+      <c r="E35" s="32">
         <v>194.00223</v>
       </c>
-      <c r="F35" s="38">
+      <c r="F35" s="32">
         <v>194.27877000000001</v>
       </c>
-      <c r="G35" s="38">
+      <c r="G35" s="32">
         <v>229.346</v>
       </c>
-      <c r="H35" s="38">
+      <c r="H35" s="32">
         <v>158.374</v>
       </c>
-      <c r="I35" s="38">
+      <c r="I35" s="32">
         <v>159.64501899999999</v>
       </c>
-      <c r="J35" s="38">
+      <c r="J35" s="32">
         <v>197.13051999999999</v>
       </c>
-      <c r="K35" s="38">
+      <c r="K35" s="32">
         <v>218.85384999999999</v>
       </c>
-      <c r="L35" s="38">
+      <c r="L35" s="32">
         <v>244.036</v>
       </c>
-      <c r="R35" s="37"/>
-      <c r="S35" s="37"/>
-      <c r="T35" s="37"/>
-      <c r="U35" s="37"/>
-      <c r="V35" s="37"/>
-      <c r="W35" s="37"/>
-      <c r="X35" s="37"/>
-      <c r="Y35" s="37"/>
-      <c r="Z35" s="37"/>
+      <c r="R35" s="31"/>
+      <c r="S35" s="31"/>
+      <c r="T35" s="31"/>
+      <c r="U35" s="31"/>
+      <c r="V35" s="31"/>
+      <c r="W35" s="31"/>
+      <c r="X35" s="31"/>
+      <c r="Y35" s="31"/>
+      <c r="Z35" s="31"/>
     </row>
     <row r="36" spans="2:29" x14ac:dyDescent="0.15">
-      <c r="B36" s="38" t="s">
+      <c r="B36" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="38">
+      <c r="C36" s="32">
         <v>120.84099999999999</v>
       </c>
-      <c r="D36" s="38">
+      <c r="D36" s="32">
         <v>142.167788</v>
       </c>
-      <c r="E36" s="38">
+      <c r="E36" s="32">
         <v>147.46974</v>
       </c>
-      <c r="F36" s="38">
+      <c r="F36" s="32">
         <v>152.9547</v>
       </c>
-      <c r="G36" s="38">
+      <c r="G36" s="32">
         <v>209.238</v>
       </c>
-      <c r="H36" s="38">
+      <c r="H36" s="32">
         <v>139.649</v>
       </c>
-      <c r="I36" s="38">
+      <c r="I36" s="32">
         <v>161.56206800000001</v>
       </c>
-      <c r="J36" s="38">
+      <c r="J36" s="32">
         <v>162.32478</v>
       </c>
-      <c r="K36" s="38">
+      <c r="K36" s="32">
         <v>186.77162999999999</v>
       </c>
-      <c r="L36" s="38">
+      <c r="L36" s="32">
         <v>241.602</v>
       </c>
-      <c r="R36" s="37"/>
-      <c r="S36" s="37"/>
-      <c r="T36" s="37"/>
-      <c r="U36" s="37"/>
-      <c r="V36" s="37"/>
-      <c r="W36" s="37"/>
-      <c r="X36" s="37"/>
-      <c r="Y36" s="37"/>
-      <c r="Z36" s="37"/>
+      <c r="R36" s="31"/>
+      <c r="S36" s="31"/>
+      <c r="T36" s="31"/>
+      <c r="U36" s="31"/>
+      <c r="V36" s="31"/>
+      <c r="W36" s="31"/>
+      <c r="X36" s="31"/>
+      <c r="Y36" s="31"/>
+      <c r="Z36" s="31"/>
     </row>
     <row r="37" spans="2:29" x14ac:dyDescent="0.15">
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="38">
+      <c r="C37" s="32">
         <v>85.462000000000003</v>
       </c>
-      <c r="D37" s="38">
+      <c r="D37" s="32">
         <v>89.389728000000005</v>
       </c>
-      <c r="E37" s="38">
+      <c r="E37" s="32">
         <v>127.11331</v>
       </c>
-      <c r="F37" s="38">
+      <c r="F37" s="32">
         <v>143.02279999999999</v>
       </c>
-      <c r="G37" s="38">
+      <c r="G37" s="32">
         <v>151.96199999999999</v>
       </c>
-      <c r="H37" s="38">
+      <c r="H37" s="32">
         <v>92.691000000000003</v>
       </c>
-      <c r="I37" s="38">
+      <c r="I37" s="32">
         <v>99.028901000000005</v>
       </c>
-      <c r="J37" s="38">
+      <c r="J37" s="32">
         <v>130.09003000000001</v>
       </c>
-      <c r="K37" s="38">
+      <c r="K37" s="32">
         <v>154.85992999999999</v>
       </c>
-      <c r="L37" s="38">
+      <c r="L37" s="32">
         <v>168.63200000000001</v>
       </c>
-      <c r="R37" s="37"/>
-      <c r="S37" s="37"/>
-      <c r="T37" s="37"/>
-      <c r="U37" s="37"/>
-      <c r="V37" s="37"/>
-      <c r="W37" s="37"/>
-      <c r="X37" s="37"/>
-      <c r="Y37" s="37"/>
-      <c r="Z37" s="37"/>
+      <c r="R37" s="31"/>
+      <c r="S37" s="31"/>
+      <c r="T37" s="31"/>
+      <c r="U37" s="31"/>
+      <c r="V37" s="31"/>
+      <c r="W37" s="31"/>
+      <c r="X37" s="31"/>
+      <c r="Y37" s="31"/>
+      <c r="Z37" s="31"/>
     </row>
     <row r="38" spans="2:29" x14ac:dyDescent="0.15">
-      <c r="B38" s="38" t="s">
+      <c r="B38" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="C38" s="38">
+      <c r="C38" s="32">
         <v>56.915999999999997</v>
       </c>
-      <c r="D38" s="38">
+      <c r="D38" s="32">
         <v>81.623938999999993</v>
       </c>
-      <c r="E38" s="38">
+      <c r="E38" s="32">
         <v>92.154589999999999</v>
       </c>
-      <c r="F38" s="38">
+      <c r="F38" s="32">
         <v>130.17309</v>
       </c>
-      <c r="G38" s="38">
+      <c r="G38" s="32">
         <v>142.83500000000001</v>
       </c>
-      <c r="H38" s="38">
+      <c r="H38" s="32">
         <v>52.892000000000003</v>
       </c>
-      <c r="I38" s="38">
+      <c r="I38" s="32">
         <v>90.794330000000002</v>
       </c>
-      <c r="J38" s="38">
+      <c r="J38" s="32">
         <v>95.382800000000003</v>
       </c>
-      <c r="K38" s="38">
+      <c r="K38" s="32">
         <v>127.52034999999999</v>
       </c>
-      <c r="L38" s="38">
+      <c r="L38" s="32">
         <v>144.01599999999999</v>
       </c>
-      <c r="O38" s="34">
+      <c r="O38" s="29">
         <f>17*6</f>
         <v>102</v>
       </c>
-      <c r="R38" s="37"/>
-      <c r="S38" s="37"/>
-      <c r="T38" s="37"/>
-      <c r="U38" s="37"/>
-      <c r="V38" s="37"/>
-      <c r="W38" s="37"/>
-      <c r="X38" s="37"/>
-      <c r="Y38" s="37"/>
-      <c r="Z38" s="37"/>
+      <c r="R38" s="31"/>
+      <c r="S38" s="31"/>
+      <c r="T38" s="31"/>
+      <c r="U38" s="31"/>
+      <c r="V38" s="31"/>
+      <c r="W38" s="31"/>
+      <c r="X38" s="31"/>
+      <c r="Y38" s="31"/>
+      <c r="Z38" s="31"/>
     </row>
     <row r="39" spans="2:29" x14ac:dyDescent="0.15">
-      <c r="B39" s="38" t="s">
+      <c r="B39" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="38">
+      <c r="C39" s="32">
         <v>44.749000000000002</v>
       </c>
-      <c r="D39" s="38">
+      <c r="D39" s="32">
         <v>69.254339999999999</v>
       </c>
-      <c r="E39" s="38">
+      <c r="E39" s="32">
         <v>77.477149999999995</v>
       </c>
-      <c r="F39" s="38">
+      <c r="F39" s="32">
         <v>121.79434999999999</v>
       </c>
-      <c r="G39" s="38">
+      <c r="G39" s="32">
         <v>123.85899999999999</v>
       </c>
-      <c r="H39" s="38">
+      <c r="H39" s="32">
         <v>44.914999999999999</v>
       </c>
-      <c r="I39" s="38">
+      <c r="I39" s="32">
         <v>66.912935000000004</v>
       </c>
-      <c r="J39" s="38">
+      <c r="J39" s="32">
         <v>85.847300000000004</v>
       </c>
-      <c r="K39" s="38">
+      <c r="K39" s="32">
         <v>118.62734</v>
       </c>
-      <c r="L39" s="38">
+      <c r="L39" s="32">
         <v>133.08199999999999</v>
       </c>
-      <c r="R39" s="37"/>
-      <c r="S39" s="37"/>
-      <c r="T39" s="37"/>
-      <c r="U39" s="39"/>
-      <c r="V39" s="39"/>
-      <c r="W39" s="39"/>
-      <c r="X39" s="39"/>
-      <c r="Y39" s="39"/>
-      <c r="Z39" s="39"/>
-      <c r="AA39" s="39"/>
-      <c r="AB39" s="39"/>
-      <c r="AC39" s="39"/>
+      <c r="R39" s="31"/>
+      <c r="S39" s="31"/>
+      <c r="T39" s="31"/>
+      <c r="U39" s="33"/>
+      <c r="V39" s="33"/>
+      <c r="W39" s="33"/>
+      <c r="X39" s="33"/>
+      <c r="Y39" s="33"/>
+      <c r="Z39" s="33"/>
+      <c r="AA39" s="33"/>
+      <c r="AB39" s="33"/>
+      <c r="AC39" s="33"/>
     </row>
     <row r="40" spans="2:29" x14ac:dyDescent="0.15">
-      <c r="B40" s="38" t="s">
+      <c r="B40" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="C40" s="38">
+      <c r="C40" s="32">
         <v>28.673999999999999</v>
       </c>
-      <c r="D40" s="38">
+      <c r="D40" s="32">
         <v>36.429943999999999</v>
       </c>
-      <c r="E40" s="38">
+      <c r="E40" s="32">
         <v>39.016820000000003</v>
       </c>
-      <c r="F40" s="38">
+      <c r="F40" s="32">
         <v>69.421180000000007</v>
       </c>
-      <c r="G40" s="38">
+      <c r="G40" s="32">
         <v>81.760999999999996</v>
       </c>
-      <c r="H40" s="38">
+      <c r="H40" s="32">
         <v>29.093</v>
       </c>
-      <c r="I40" s="38">
+      <c r="I40" s="32">
         <v>38.022469000000001</v>
       </c>
-      <c r="J40" s="38">
+      <c r="J40" s="32">
         <v>41.468049999999998</v>
       </c>
-      <c r="K40" s="38">
+      <c r="K40" s="32">
         <v>66.427139999999994</v>
       </c>
-      <c r="L40" s="38">
+      <c r="L40" s="32">
         <v>99.674000000000007</v>
       </c>
-      <c r="R40" s="37"/>
-      <c r="S40" s="37"/>
-      <c r="T40" s="37"/>
-      <c r="U40" s="39"/>
-      <c r="V40" s="39"/>
-      <c r="W40" s="39"/>
-      <c r="X40" s="39"/>
-      <c r="Y40" s="39"/>
-      <c r="Z40" s="39"/>
-      <c r="AA40" s="39"/>
-      <c r="AB40" s="39"/>
-      <c r="AC40" s="39"/>
+      <c r="R40" s="31"/>
+      <c r="S40" s="31"/>
+      <c r="T40" s="31"/>
+      <c r="U40" s="33"/>
+      <c r="V40" s="33"/>
+      <c r="W40" s="33"/>
+      <c r="X40" s="33"/>
+      <c r="Y40" s="33"/>
+      <c r="Z40" s="33"/>
+      <c r="AA40" s="33"/>
+      <c r="AB40" s="33"/>
+      <c r="AC40" s="33"/>
     </row>
     <row r="41" spans="2:29" x14ac:dyDescent="0.15">
-      <c r="B41" s="38" t="s">
+      <c r="B41" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="38">
+      <c r="C41" s="32">
         <v>13.023</v>
       </c>
-      <c r="D41" s="38">
+      <c r="D41" s="32">
         <v>16.424966000000001</v>
       </c>
-      <c r="E41" s="38">
+      <c r="E41" s="32">
         <v>23.27844</v>
       </c>
-      <c r="F41" s="38">
+      <c r="F41" s="32">
         <v>23.761959999999998</v>
       </c>
-      <c r="G41" s="38">
+      <c r="G41" s="32">
         <v>39.51</v>
       </c>
-      <c r="H41" s="38">
+      <c r="H41" s="32">
         <v>12.961</v>
       </c>
-      <c r="I41" s="38">
+      <c r="I41" s="32">
         <v>17.544052000000001</v>
       </c>
-      <c r="J41" s="38">
+      <c r="J41" s="32">
         <v>23.166139999999999</v>
       </c>
-      <c r="K41" s="38">
+      <c r="K41" s="32">
         <v>23.964870000000001</v>
       </c>
-      <c r="L41" s="38">
+      <c r="L41" s="32">
         <v>41.835999999999999</v>
       </c>
-      <c r="R41" s="37"/>
-      <c r="S41" s="37"/>
-      <c r="T41" s="37"/>
-      <c r="U41" s="40">
+      <c r="R41" s="31"/>
+      <c r="S41" s="31"/>
+      <c r="T41" s="31"/>
+      <c r="U41" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="2:29" x14ac:dyDescent="0.15">
-      <c r="B42" s="38" t="s">
+      <c r="B42" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="38">
+      <c r="C42" s="32">
         <v>6.6529999999999996</v>
       </c>
-      <c r="D42" s="38">
+      <c r="D42" s="32">
         <v>7.0690189999999999</v>
       </c>
-      <c r="E42" s="38">
+      <c r="E42" s="32">
         <v>10.06545</v>
       </c>
-      <c r="F42" s="38">
+      <c r="F42" s="32">
         <v>14.758330000000001</v>
       </c>
-      <c r="G42" s="38">
+      <c r="G42" s="32">
         <v>15.955</v>
       </c>
-      <c r="H42" s="38">
+      <c r="H42" s="32">
         <v>6.7409999999999997</v>
       </c>
-      <c r="I42" s="38">
+      <c r="I42" s="32">
         <v>7.4150369999999999</v>
       </c>
-      <c r="J42" s="38">
+      <c r="J42" s="32">
         <v>10.08996</v>
       </c>
-      <c r="K42" s="38">
+      <c r="K42" s="32">
         <v>14.68948</v>
       </c>
-      <c r="L42" s="38">
+      <c r="L42" s="32">
         <v>17.649999999999999</v>
       </c>
-      <c r="R42" s="37"/>
-      <c r="S42" s="37"/>
-      <c r="T42" s="37"/>
-      <c r="U42" s="40">
+      <c r="R42" s="31"/>
+      <c r="S42" s="31"/>
+      <c r="T42" s="31"/>
+      <c r="U42" s="34">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="2:29" x14ac:dyDescent="0.15">
-      <c r="R43" s="37"/>
-      <c r="S43" s="37"/>
-      <c r="T43" s="37"/>
-      <c r="U43" s="40">
+      <c r="R43" s="31"/>
+      <c r="S43" s="31"/>
+      <c r="T43" s="31"/>
+      <c r="U43" s="34">
         <v>3</v>
       </c>
     </row>
     <row r="44" spans="2:29" x14ac:dyDescent="0.15">
-      <c r="B44" s="35" t="s">
+      <c r="B44" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="C44" s="36" t="s">
+      <c r="C44" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="36" t="s">
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="I44" s="36"/>
-      <c r="J44" s="36"/>
-      <c r="K44" s="36"/>
-      <c r="L44" s="36"/>
-      <c r="T44" s="37"/>
-      <c r="U44" s="40">
+      <c r="I44" s="39"/>
+      <c r="J44" s="39"/>
+      <c r="K44" s="39"/>
+      <c r="L44" s="39"/>
+      <c r="T44" s="31"/>
+      <c r="U44" s="34">
         <v>4</v>
       </c>
     </row>
     <row r="45" spans="2:29" x14ac:dyDescent="0.15">
-      <c r="B45" s="35" t="s">
+      <c r="B45" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="C45" s="35" t="s">
+      <c r="C45" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="D45" s="35" t="s">
+      <c r="D45" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="E45" s="35" t="s">
+      <c r="E45" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="F45" s="35" t="s">
+      <c r="F45" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="G45" s="35" t="s">
+      <c r="G45" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="H45" s="35" t="s">
+      <c r="H45" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="I45" s="35" t="s">
+      <c r="I45" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="J45" s="35" t="s">
+      <c r="J45" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="K45" s="35" t="s">
+      <c r="K45" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="L45" s="35" t="s">
+      <c r="L45" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="T45" s="37"/>
-      <c r="U45" s="40">
+      <c r="T45" s="31"/>
+      <c r="U45" s="34">
         <v>5</v>
       </c>
     </row>
     <row r="46" spans="2:29" x14ac:dyDescent="0.15">
-      <c r="B46" s="38" t="s">
+      <c r="B46" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="C46" s="35">
+      <c r="C46" s="30">
         <v>247.17699999999999</v>
       </c>
-      <c r="D46" s="35">
+      <c r="D46" s="30">
         <v>309.72552000000002</v>
       </c>
-      <c r="E46" s="35">
+      <c r="E46" s="30">
         <v>339.26765999999998</v>
       </c>
-      <c r="F46" s="35">
+      <c r="F46" s="30">
         <v>409.25088</v>
       </c>
-      <c r="G46" s="35">
+      <c r="G46" s="30">
         <v>419.096</v>
       </c>
-      <c r="H46" s="35">
+      <c r="H46" s="30">
         <v>253.58099999999999</v>
       </c>
-      <c r="I46" s="35">
+      <c r="I46" s="30">
         <v>312.25724000000002</v>
       </c>
-      <c r="J46" s="35">
+      <c r="J46" s="30">
         <v>342.05005999999997</v>
       </c>
-      <c r="K46" s="35">
+      <c r="K46" s="30">
         <v>406.28500000000003</v>
       </c>
-      <c r="L46" s="35">
+      <c r="L46" s="30">
         <v>415.923</v>
       </c>
-      <c r="T46" s="37"/>
-      <c r="U46" s="40">
+      <c r="T46" s="31"/>
+      <c r="U46" s="34">
         <v>6</v>
       </c>
     </row>
     <row r="47" spans="2:29" x14ac:dyDescent="0.15">
-      <c r="B47" s="38" t="s">
+      <c r="B47" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="C47" s="35">
+      <c r="C47" s="30">
         <v>221.58799999999999</v>
       </c>
-      <c r="D47" s="35">
+      <c r="D47" s="30">
         <v>260.77222</v>
       </c>
-      <c r="E47" s="35">
+      <c r="E47" s="30">
         <v>316.74896000000001</v>
       </c>
-      <c r="F47" s="35">
+      <c r="F47" s="30">
         <v>325.33497</v>
       </c>
-      <c r="G47" s="35">
+      <c r="G47" s="30">
         <v>343.34500000000003</v>
       </c>
-      <c r="H47" s="35">
+      <c r="H47" s="30">
         <v>243.267</v>
       </c>
-      <c r="I47" s="35">
+      <c r="I47" s="30">
         <v>295.15393</v>
       </c>
-      <c r="J47" s="35">
+      <c r="J47" s="30">
         <v>337.76772</v>
       </c>
-      <c r="K47" s="35">
+      <c r="K47" s="30">
         <v>387.21228000000002</v>
       </c>
-      <c r="L47" s="35">
+      <c r="L47" s="30">
         <v>399.79</v>
       </c>
-      <c r="T47" s="37"/>
-      <c r="U47" s="40">
+      <c r="T47" s="31"/>
+      <c r="U47" s="34">
         <v>7</v>
       </c>
     </row>
     <row r="48" spans="2:29" x14ac:dyDescent="0.15">
-      <c r="B48" s="38" t="s">
+      <c r="B48" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="C48" s="35">
+      <c r="C48" s="30">
         <v>198.101</v>
       </c>
-      <c r="D48" s="35">
+      <c r="D48" s="30">
         <v>221.57705999999999</v>
       </c>
-      <c r="E48" s="35">
+      <c r="E48" s="30">
         <v>264.84872999999999</v>
       </c>
-      <c r="F48" s="35">
+      <c r="F48" s="30">
         <v>295.26760999999999</v>
       </c>
-      <c r="G48" s="35">
+      <c r="G48" s="30">
         <v>297.536</v>
       </c>
-      <c r="H48" s="35">
+      <c r="H48" s="30">
         <v>212.34299999999999</v>
       </c>
-      <c r="I48" s="35">
+      <c r="I48" s="30">
         <v>235.55307999999999</v>
       </c>
-      <c r="J48" s="35">
+      <c r="J48" s="30">
         <v>287.79401999999999</v>
       </c>
-      <c r="K48" s="35">
+      <c r="K48" s="30">
         <v>310.82551000000001</v>
       </c>
-      <c r="L48" s="35">
+      <c r="L48" s="30">
         <v>326.36</v>
       </c>
-      <c r="T48" s="37"/>
-      <c r="U48" s="40">
+      <c r="T48" s="31"/>
+      <c r="U48" s="34">
         <v>8</v>
       </c>
     </row>
     <row r="49" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B49" s="38" t="s">
+      <c r="B49" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="35">
+      <c r="C49" s="30">
         <v>190.505</v>
       </c>
-      <c r="D49" s="35">
+      <c r="D49" s="30">
         <v>190.72821999999999</v>
       </c>
-      <c r="E49" s="35">
+      <c r="E49" s="30">
         <v>249.57413</v>
       </c>
-      <c r="F49" s="35">
+      <c r="F49" s="30">
         <v>257.65647999999999</v>
       </c>
-      <c r="G49" s="35">
+      <c r="G49" s="30">
         <v>271.875</v>
       </c>
-      <c r="H49" s="35">
+      <c r="H49" s="30">
         <v>195.095</v>
       </c>
-      <c r="I49" s="35">
+      <c r="I49" s="30">
         <v>196.42809</v>
       </c>
-      <c r="J49" s="35">
+      <c r="J49" s="30">
         <v>272.71359999999999</v>
       </c>
-      <c r="K49" s="35">
+      <c r="K49" s="30">
         <v>281.15982000000002</v>
       </c>
-      <c r="L49" s="35">
+      <c r="L49" s="30">
         <v>289.17</v>
       </c>
-      <c r="T49" s="37"/>
-      <c r="U49" s="40">
+      <c r="T49" s="31"/>
+      <c r="U49" s="34">
         <v>9</v>
       </c>
     </row>
     <row r="50" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B50" s="38" t="s">
+      <c r="B50" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="C50" s="35">
+      <c r="C50" s="30">
         <v>153.917</v>
       </c>
-      <c r="D50" s="35">
+      <c r="D50" s="30">
         <v>175.00106</v>
       </c>
-      <c r="E50" s="35">
+      <c r="E50" s="30">
         <v>203.25376</v>
       </c>
-      <c r="F50" s="35">
+      <c r="F50" s="30">
         <v>210.78283999999999</v>
       </c>
-      <c r="G50" s="35">
+      <c r="G50" s="30">
         <v>267.36200000000002</v>
       </c>
-      <c r="H50" s="35">
+      <c r="H50" s="30">
         <v>172.184</v>
       </c>
-      <c r="I50" s="35">
+      <c r="I50" s="30">
         <v>196.90854999999999</v>
       </c>
-      <c r="J50" s="35">
+      <c r="J50" s="30">
         <v>222.67140000000001</v>
       </c>
-      <c r="K50" s="35">
+      <c r="K50" s="30">
         <v>239.62595999999999</v>
       </c>
-      <c r="L50" s="35">
+      <c r="L50" s="30">
         <v>305.16699999999997</v>
       </c>
-      <c r="T50" s="37"/>
-      <c r="U50" s="40">
+      <c r="T50" s="31"/>
+      <c r="U50" s="34">
         <v>10</v>
       </c>
     </row>
     <row r="51" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B51" s="38" t="s">
+      <c r="B51" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="C51" s="35">
+      <c r="C51" s="30">
         <v>113.988</v>
       </c>
-      <c r="D51" s="35">
+      <c r="D51" s="30">
         <v>118.7179</v>
       </c>
-      <c r="E51" s="35">
+      <c r="E51" s="30">
         <v>166.94678999999999</v>
       </c>
-      <c r="F51" s="35">
+      <c r="F51" s="30">
         <v>185.06259</v>
       </c>
-      <c r="G51" s="35">
+      <c r="G51" s="30">
         <v>199.32300000000001</v>
       </c>
-      <c r="H51" s="35">
+      <c r="H51" s="30">
         <v>119.416</v>
       </c>
-      <c r="I51" s="35">
+      <c r="I51" s="30">
         <v>124.91575</v>
       </c>
-      <c r="J51" s="35">
+      <c r="J51" s="30">
         <v>169.26013</v>
       </c>
-      <c r="K51" s="35">
+      <c r="K51" s="30">
         <v>209.32839000000001</v>
       </c>
-      <c r="L51" s="35">
+      <c r="L51" s="30">
         <v>209.53700000000001</v>
       </c>
-      <c r="U51" s="40">
+      <c r="U51" s="34">
         <v>11</v>
       </c>
     </row>
     <row r="52" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B52" s="38" t="s">
+      <c r="B52" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="C52" s="35">
+      <c r="C52" s="30">
         <v>75.695999999999998</v>
       </c>
-      <c r="D52" s="35">
+      <c r="D52" s="30">
         <v>99.858949999999993</v>
       </c>
-      <c r="E52" s="35">
+      <c r="E52" s="30">
         <v>118.53012</v>
       </c>
-      <c r="F52" s="35">
+      <c r="F52" s="30">
         <v>171.42668</v>
       </c>
-      <c r="G52" s="35">
+      <c r="G52" s="30">
         <v>196.04499999999999</v>
       </c>
-      <c r="H52" s="35">
+      <c r="H52" s="30">
         <v>74.763999999999996</v>
       </c>
-      <c r="I52" s="35">
+      <c r="I52" s="30">
         <v>109.17786</v>
       </c>
-      <c r="J52" s="35">
+      <c r="J52" s="30">
         <v>119.93992</v>
       </c>
-      <c r="K52" s="35">
+      <c r="K52" s="30">
         <v>165.89177000000001</v>
       </c>
-      <c r="L52" s="35">
+      <c r="L52" s="30">
         <v>198.68299999999999</v>
       </c>
-      <c r="U52" s="40">
+      <c r="U52" s="34">
         <v>12</v>
       </c>
     </row>
     <row r="53" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B53" s="38" t="s">
+      <c r="B53" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="C53" s="35">
+      <c r="C53" s="30">
         <v>57.039000000000001</v>
       </c>
-      <c r="D53" s="35">
+      <c r="D53" s="30">
         <v>84.439260000000004</v>
       </c>
-      <c r="E53" s="35">
+      <c r="E53" s="30">
         <v>127.94428000000001</v>
       </c>
-      <c r="F53" s="35">
+      <c r="F53" s="30">
         <v>168.63958</v>
       </c>
-      <c r="G53" s="35">
+      <c r="G53" s="30">
         <v>175.482</v>
       </c>
-      <c r="H53" s="35">
+      <c r="H53" s="30">
         <v>56.723999999999997</v>
       </c>
-      <c r="I53" s="35">
+      <c r="I53" s="30">
         <v>83.250969999999995</v>
       </c>
-      <c r="J53" s="35">
+      <c r="J53" s="30">
         <v>150.69134</v>
       </c>
-      <c r="K53" s="35">
+      <c r="K53" s="30">
         <v>160.39735999999999</v>
       </c>
-      <c r="L53" s="35">
+      <c r="L53" s="30">
         <v>200.08500000000001</v>
       </c>
-      <c r="U53" s="40">
+      <c r="U53" s="34">
         <v>13</v>
       </c>
     </row>
     <row r="54" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B54" s="38" t="s">
+      <c r="B54" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="C54" s="35">
+      <c r="C54" s="30">
         <v>40.701000000000001</v>
       </c>
-      <c r="D54" s="35">
+      <c r="D54" s="30">
         <v>48.909880000000001</v>
       </c>
-      <c r="E54" s="35">
+      <c r="E54" s="30">
         <v>55.539000000000001</v>
       </c>
-      <c r="F54" s="35">
+      <c r="F54" s="30">
         <v>106.54316</v>
       </c>
-      <c r="G54" s="35">
+      <c r="G54" s="30">
         <v>137.53800000000001</v>
       </c>
-      <c r="H54" s="35">
+      <c r="H54" s="30">
         <v>41.021000000000001</v>
       </c>
-      <c r="I54" s="35">
+      <c r="I54" s="30">
         <v>51.704500000000003</v>
       </c>
-      <c r="J54" s="35">
+      <c r="J54" s="30">
         <v>56.520069999999997</v>
       </c>
-      <c r="K54" s="35">
+      <c r="K54" s="30">
         <v>95.82741</v>
       </c>
-      <c r="L54" s="35">
+      <c r="L54" s="30">
         <v>173.84700000000001</v>
       </c>
-      <c r="U54" s="40">
+      <c r="U54" s="34">
         <v>14</v>
       </c>
     </row>
     <row r="55" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B55" s="38" t="s">
+      <c r="B55" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="C55" s="35">
+      <c r="C55" s="30">
         <v>20.771000000000001</v>
       </c>
-      <c r="D55" s="35">
+      <c r="D55" s="30">
         <v>22.82208</v>
       </c>
-      <c r="E55" s="35">
+      <c r="E55" s="30">
         <v>31.843160000000001</v>
       </c>
-      <c r="F55" s="35">
+      <c r="F55" s="30">
         <v>42.056420000000003</v>
       </c>
-      <c r="G55" s="35">
+      <c r="G55" s="30">
         <v>55.253999999999998</v>
       </c>
-      <c r="H55" s="35">
+      <c r="H55" s="30">
         <v>20.73</v>
       </c>
-      <c r="I55" s="35">
+      <c r="I55" s="30">
         <v>23.82358</v>
       </c>
-      <c r="J55" s="35">
+      <c r="J55" s="30">
         <v>31.638000000000002</v>
       </c>
-      <c r="K55" s="35">
+      <c r="K55" s="30">
         <v>42.22878</v>
       </c>
-      <c r="L55" s="35">
+      <c r="L55" s="30">
         <v>60.433999999999997</v>
       </c>
-      <c r="U55" s="40">
+      <c r="U55" s="34">
         <v>15</v>
       </c>
     </row>
     <row r="56" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B56" s="38" t="s">
+      <c r="B56" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="C56" s="35">
+      <c r="C56" s="30">
         <v>10.878</v>
       </c>
-      <c r="D56" s="35">
+      <c r="D56" s="30">
         <v>12.288349999999999</v>
       </c>
-      <c r="E56" s="35">
+      <c r="E56" s="30">
         <v>13.613110000000001</v>
       </c>
-      <c r="F56" s="35">
+      <c r="F56" s="30">
         <v>21.786809999999999</v>
       </c>
-      <c r="G56" s="35">
+      <c r="G56" s="30">
         <v>27.577000000000002</v>
       </c>
-      <c r="H56" s="35">
+      <c r="H56" s="30">
         <v>11.013999999999999</v>
       </c>
-      <c r="I56" s="35">
+      <c r="I56" s="30">
         <v>12.347390000000001</v>
       </c>
-      <c r="J56" s="35">
+      <c r="J56" s="30">
         <v>13.6023</v>
       </c>
-      <c r="K56" s="35">
+      <c r="K56" s="30">
         <v>24.275960000000001</v>
       </c>
-      <c r="L56" s="35">
+      <c r="L56" s="30">
         <v>27.457000000000001</v>
       </c>
-      <c r="U56" s="40">
+      <c r="U56" s="34">
         <v>16</v>
       </c>
     </row>
     <row r="57" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="U57" s="40">
+      <c r="U57" s="34">
         <v>17</v>
       </c>
     </row>
     <row r="58" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="U58" s="40">
+      <c r="U58" s="34">
         <v>18</v>
       </c>
     </row>
     <row r="59" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="U59" s="40">
+      <c r="U59" s="34">
         <v>19</v>
       </c>
     </row>
     <row r="60" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="U60" s="40">
+      <c r="U60" s="34">
         <v>20</v>
       </c>
     </row>
     <row r="61" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="U61" s="40">
+      <c r="U61" s="34">
         <v>21</v>
       </c>
     </row>
     <row r="62" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="U62" s="40">
+      <c r="U62" s="34">
         <v>22</v>
       </c>
     </row>
     <row r="63" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="U63" s="40" t="s">
+      <c r="U63" s="34" t="s">
         <v>113</v>
       </c>
     </row>
@@ -7850,2447 +7850,2447 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.6640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.6640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" style="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5" style="31" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5" style="31" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.6640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5" style="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.6640625" style="26" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="3.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.1640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.5" style="27" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11" style="27" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.33203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.33203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11" style="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29" t="s">
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="J3" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="K3" s="28" t="s">
+      <c r="K3" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="L3" s="28" t="s">
+      <c r="L3" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25" t="s">
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="R3" s="25" t="s">
+      <c r="R3" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="S3" s="25" t="s">
+      <c r="S3" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="T3" s="25">
+      <c r="T3" s="21">
         <v>7.7939999999999996</v>
       </c>
-      <c r="U3" s="26">
+      <c r="U3" s="22">
         <v>9.6424249999999994</v>
       </c>
-      <c r="V3" s="26">
+      <c r="V3" s="22">
         <v>14.658079000000001</v>
       </c>
-      <c r="W3" s="26">
+      <c r="W3" s="22">
         <v>16.581627000000001</v>
       </c>
-      <c r="X3" s="26">
+      <c r="X3" s="22">
         <v>20.504000000000001</v>
       </c>
-      <c r="Y3" s="33"/>
+      <c r="Y3" s="28"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="24">
         <v>3.8820000000000001</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="24">
         <v>15.375807999999999</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="24">
         <v>35.153829999999999</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="24">
         <v>128.79741000000001</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="24">
         <v>398.721</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4" s="25">
         <v>4.0549999999999997</v>
       </c>
-      <c r="I4" s="30">
+      <c r="I4" s="25">
         <v>16.698564999999999</v>
       </c>
-      <c r="J4" s="30">
+      <c r="J4" s="25">
         <v>41.533740000000002</v>
       </c>
-      <c r="K4" s="30">
+      <c r="K4" s="25">
         <v>136.79949999999999</v>
       </c>
-      <c r="L4" s="30">
+      <c r="L4" s="25">
         <v>411.21899999999999</v>
       </c>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25">
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21">
         <v>2</v>
       </c>
-      <c r="R4" s="25" t="s">
+      <c r="R4" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="S4" s="25" t="s">
+      <c r="S4" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="T4" s="25" t="s">
+      <c r="T4" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="U4" s="26">
+      <c r="U4" s="22">
         <v>5.0060000000000002</v>
       </c>
-      <c r="V4" s="26">
+      <c r="V4" s="22">
         <v>6.9740609999999998</v>
       </c>
-      <c r="W4" s="26">
+      <c r="W4" s="22">
         <v>12.789255000000001</v>
       </c>
-      <c r="X4" s="26">
+      <c r="X4" s="22">
         <v>12.81432</v>
       </c>
-      <c r="Y4" s="26">
+      <c r="Y4" s="22">
         <v>17.606000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A5" s="25"/>
-      <c r="B5" s="30" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="25">
         <v>2.4249999999999998</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="25">
         <v>12.438447</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="25">
         <v>34.101489999999998</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="25">
         <v>121.29849</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="25">
         <v>338.803</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="25">
         <v>3.9990000000000001</v>
       </c>
-      <c r="I5" s="30">
+      <c r="I5" s="25">
         <v>15.576687</v>
       </c>
-      <c r="J5" s="30">
+      <c r="J5" s="25">
         <v>38.353430000000003</v>
       </c>
-      <c r="K5" s="30">
+      <c r="K5" s="25">
         <v>135.11243999999999</v>
       </c>
-      <c r="L5" s="30">
+      <c r="L5" s="25">
         <v>374.48899999999998</v>
       </c>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25">
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21">
         <v>3</v>
       </c>
-      <c r="R5" s="25" t="s">
+      <c r="R5" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="S5" s="25" t="s">
+      <c r="S5" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="T5" s="25" t="s">
+      <c r="T5" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="U5" s="26">
+      <c r="U5" s="22">
         <v>3.4780000000000002</v>
       </c>
-      <c r="V5" s="26">
+      <c r="V5" s="22">
         <v>4.8157310000000004</v>
       </c>
-      <c r="W5" s="26">
+      <c r="W5" s="22">
         <v>7.719462</v>
       </c>
-      <c r="X5" s="26">
+      <c r="X5" s="22">
         <v>8.4373319999999996</v>
       </c>
-      <c r="Y5" s="26">
+      <c r="Y5" s="22">
         <v>11.695</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A6" s="25"/>
-      <c r="B6" s="30" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="25">
         <v>2.4329999999999998</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="25">
         <v>8.7712859999999999</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="25">
         <v>25.90108</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="25">
         <v>102.31448</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="25">
         <v>320.21800000000002</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="25">
         <v>2.3199999999999998</v>
       </c>
-      <c r="I6" s="30">
+      <c r="I6" s="25">
         <v>10.276593</v>
       </c>
-      <c r="J6" s="30">
+      <c r="J6" s="25">
         <v>30.348839999999999</v>
       </c>
-      <c r="K6" s="30">
+      <c r="K6" s="25">
         <v>116.35581000000001</v>
       </c>
-      <c r="L6" s="30">
+      <c r="L6" s="25">
         <v>337.39100000000002</v>
       </c>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25">
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21">
         <v>4</v>
       </c>
-      <c r="R6" s="25" t="s">
+      <c r="R6" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="S6" s="25" t="s">
+      <c r="S6" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="T6" s="25" t="s">
+      <c r="T6" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="U6" s="26">
+      <c r="U6" s="22">
         <v>2.3929999999999998</v>
       </c>
-      <c r="V6" s="26">
+      <c r="V6" s="22">
         <v>3.2692009999999998</v>
       </c>
-      <c r="W6" s="26">
+      <c r="W6" s="22">
         <v>5.5408369999999998</v>
       </c>
-      <c r="X6" s="26">
+      <c r="X6" s="22">
         <v>7.6212590000000002</v>
       </c>
-      <c r="Y6" s="26">
+      <c r="Y6" s="22">
         <v>9.0489999999999995</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A7" s="25"/>
-      <c r="B7" s="30" t="s">
+      <c r="A7" s="21"/>
+      <c r="B7" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="25">
         <v>1.5940000000000001</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="25">
         <v>6.3536710000000003</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="25">
         <v>18.202390000000001</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="25">
         <v>51.853949999999998</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="25">
         <v>289.19099999999997</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="25">
         <v>1.577</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="25">
         <v>8.3714829999999996</v>
       </c>
-      <c r="J7" s="30">
+      <c r="J7" s="25">
         <v>22.144850000000002</v>
       </c>
-      <c r="K7" s="30">
+      <c r="K7" s="25">
         <v>106.75896</v>
       </c>
-      <c r="L7" s="30">
+      <c r="L7" s="25">
         <v>287.411</v>
       </c>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25">
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21">
         <v>5</v>
       </c>
-      <c r="R7" s="25" t="s">
+      <c r="R7" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="S7" s="25" t="s">
+      <c r="S7" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="T7" s="25" t="s">
+      <c r="T7" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="U7" s="26">
+      <c r="U7" s="22">
         <v>1.708</v>
       </c>
-      <c r="V7" s="26">
+      <c r="V7" s="22">
         <v>2.1579660000000001</v>
       </c>
-      <c r="W7" s="26">
+      <c r="W7" s="22">
         <v>2.8160859999999999</v>
       </c>
-      <c r="X7" s="26">
+      <c r="X7" s="22">
         <v>7.1276760000000001</v>
       </c>
-      <c r="Y7" s="26">
+      <c r="Y7" s="22">
         <v>7.44</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A8" s="25"/>
-      <c r="B8" s="30" t="s">
+      <c r="A8" s="21"/>
+      <c r="B8" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="25">
         <v>1.621</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="25">
         <v>5.8149230000000003</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="25">
         <v>14.83771</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="25">
         <v>62.050579999999997</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="25">
         <v>263.452</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="25">
         <v>1.3220000000000001</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="25">
         <v>6.7305830000000002</v>
       </c>
-      <c r="J8" s="30">
+      <c r="J8" s="25">
         <v>21.862770000000001</v>
       </c>
-      <c r="K8" s="30">
+      <c r="K8" s="25">
         <v>71.150980000000004</v>
       </c>
-      <c r="L8" s="30">
+      <c r="L8" s="25">
         <v>272.63499999999999</v>
       </c>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25">
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21">
         <v>6</v>
       </c>
-      <c r="R8" s="25" t="s">
+      <c r="R8" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="S8" s="25" t="s">
+      <c r="S8" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="T8" s="25" t="s">
+      <c r="T8" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="U8" s="26">
+      <c r="U8" s="22">
         <v>1.615</v>
       </c>
-      <c r="V8" s="26">
+      <c r="V8" s="22">
         <v>1.759674</v>
       </c>
-      <c r="W8" s="26">
+      <c r="W8" s="22">
         <v>1.9605140000000001</v>
       </c>
-      <c r="X8" s="26">
+      <c r="X8" s="22">
         <v>5.747439</v>
       </c>
-      <c r="Y8" s="26">
+      <c r="Y8" s="22">
         <v>7.492</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A9" s="25"/>
-      <c r="B9" s="30" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="25">
         <v>1.4810000000000001</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="25">
         <v>4.9974660000000002</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="25">
         <v>27.80677</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="25">
         <v>91.860060000000004</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="25">
         <v>370.57</v>
       </c>
-      <c r="H9" s="30">
+      <c r="H9" s="25">
         <v>1.64</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I9" s="25">
         <v>5.3321949999999996</v>
       </c>
-      <c r="J9" s="30">
+      <c r="J9" s="25">
         <v>28.232569999999999</v>
       </c>
-      <c r="K9" s="30">
+      <c r="K9" s="25">
         <v>93.850759999999994</v>
       </c>
-      <c r="L9" s="30">
+      <c r="L9" s="25">
         <v>375.12099999999998</v>
       </c>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25">
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21">
         <v>7</v>
       </c>
-      <c r="R9" s="25" t="s">
+      <c r="R9" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="S9" s="25" t="s">
+      <c r="S9" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="T9" s="25" t="s">
+      <c r="T9" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="U9" s="26">
+      <c r="U9" s="22">
         <v>2.5129999999999999</v>
       </c>
-      <c r="V9" s="26">
+      <c r="V9" s="22">
         <v>2.790988</v>
       </c>
-      <c r="W9" s="26">
+      <c r="W9" s="22">
         <v>2.9196439999999999</v>
       </c>
-      <c r="X9" s="26">
+      <c r="X9" s="22">
         <v>3.8662839999999998</v>
       </c>
-      <c r="Y9" s="26">
+      <c r="Y9" s="22">
         <v>7.0739999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A10" s="25"/>
-      <c r="B10" s="30" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="25">
         <v>1.8939999999999999</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="25">
         <v>6.7942299999999998</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="25">
         <v>34.606999999999999</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="25">
         <v>129.12479999999999</v>
       </c>
-      <c r="G10" s="30">
+      <c r="G10" s="25">
         <v>587.65099999999995</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10" s="25">
         <v>1.4770000000000001</v>
       </c>
-      <c r="I10" s="30">
+      <c r="I10" s="25">
         <v>6.5260749999999996</v>
       </c>
-      <c r="J10" s="30">
+      <c r="J10" s="25">
         <v>38.163460000000001</v>
       </c>
-      <c r="K10" s="30">
+      <c r="K10" s="25">
         <v>115.97333999999999</v>
       </c>
-      <c r="L10" s="30">
+      <c r="L10" s="25">
         <v>591.22500000000002</v>
       </c>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25">
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21">
         <v>8</v>
       </c>
-      <c r="R10" s="25" t="s">
+      <c r="R10" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="S10" s="25" t="s">
+      <c r="S10" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="T10" s="25" t="s">
+      <c r="T10" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="U10" s="26">
+      <c r="U10" s="22">
         <v>4.5590000000000002</v>
       </c>
-      <c r="V10" s="26">
+      <c r="V10" s="22">
         <v>5.7431099999999997</v>
       </c>
-      <c r="W10" s="26">
+      <c r="W10" s="22">
         <v>6.3051069999999996</v>
       </c>
-      <c r="X10" s="26">
+      <c r="X10" s="22">
         <v>6.6055799999999998</v>
       </c>
-      <c r="Y10" s="26">
+      <c r="Y10" s="22">
         <v>6.7320000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A11" s="25"/>
-      <c r="B11" s="30" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="25">
         <v>1.843</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="25">
         <v>7.4040819999999998</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="25">
         <v>32.186059999999998</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="25">
         <v>112.95923999999999</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="25">
         <v>426.35399999999998</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="25">
         <v>1.764</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="25">
         <v>8.9225689999999993</v>
       </c>
-      <c r="J11" s="30">
+      <c r="J11" s="25">
         <v>36.723640000000003</v>
       </c>
-      <c r="K11" s="30">
+      <c r="K11" s="25">
         <v>113.60771</v>
       </c>
-      <c r="L11" s="30">
+      <c r="L11" s="25">
         <v>400.87799999999999</v>
       </c>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25">
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21">
         <v>9</v>
       </c>
-      <c r="R11" s="25" t="s">
+      <c r="R11" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="S11" s="25" t="s">
+      <c r="S11" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="T11" s="25" t="s">
+      <c r="T11" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="U11" s="26">
+      <c r="U11" s="22">
         <v>2.8450000000000002</v>
       </c>
-      <c r="V11" s="26">
+      <c r="V11" s="22">
         <v>6.3573180000000002</v>
       </c>
-      <c r="W11" s="26">
+      <c r="W11" s="22">
         <v>7.2570209999999999</v>
       </c>
-      <c r="X11" s="26">
+      <c r="X11" s="22">
         <v>8.7636020000000006</v>
       </c>
-      <c r="Y11" s="26">
+      <c r="Y11" s="22">
         <v>10.388999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A12" s="25"/>
-      <c r="B12" s="30" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="25">
         <v>2.1339999999999999</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="25">
         <v>7.3037809999999999</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="25">
         <v>20.867560000000001</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="25">
         <v>73.075130000000001</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="25">
         <v>381.66699999999997</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="25">
         <v>2.1179999999999999</v>
       </c>
-      <c r="I12" s="30">
+      <c r="I12" s="25">
         <v>8.0786079999999991</v>
       </c>
-      <c r="J12" s="30">
+      <c r="J12" s="25">
         <v>25.54636</v>
       </c>
-      <c r="K12" s="30">
+      <c r="K12" s="25">
         <v>77.215000000000003</v>
       </c>
-      <c r="L12" s="30">
+      <c r="L12" s="25">
         <v>396.01400000000001</v>
       </c>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25">
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21">
         <v>10</v>
       </c>
-      <c r="R12" s="25" t="s">
+      <c r="R12" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="S12" s="25" t="s">
+      <c r="S12" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="T12" s="25" t="s">
+      <c r="T12" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="U12" s="26">
+      <c r="U12" s="22">
         <v>2.1459999999999999</v>
       </c>
-      <c r="V12" s="26">
+      <c r="V12" s="22">
         <v>2.6261540000000001</v>
       </c>
-      <c r="W12" s="26">
+      <c r="W12" s="22">
         <v>4.0838039999999998</v>
       </c>
-      <c r="X12" s="26">
+      <c r="X12" s="22">
         <v>9.4196460000000002</v>
       </c>
-      <c r="Y12" s="26">
+      <c r="Y12" s="22">
         <v>11.221</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A13" s="25"/>
-      <c r="B13" s="30" t="s">
+      <c r="A13" s="21"/>
+      <c r="B13" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="25">
         <v>2.323</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="25">
         <v>5.7934049999999999</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="25">
         <v>17.69575</v>
       </c>
-      <c r="F13" s="30">
+      <c r="F13" s="25">
         <v>55.155009999999997</v>
       </c>
-      <c r="G13" s="30">
+      <c r="G13" s="25">
         <v>377.21</v>
       </c>
-      <c r="H13" s="30">
+      <c r="H13" s="25">
         <v>2.1429999999999998</v>
       </c>
-      <c r="I13" s="30">
+      <c r="I13" s="25">
         <v>6.5647120000000001</v>
       </c>
-      <c r="J13" s="30">
+      <c r="J13" s="25">
         <v>22.772179999999999</v>
       </c>
-      <c r="K13" s="30">
+      <c r="K13" s="25">
         <v>59.562170000000002</v>
       </c>
-      <c r="L13" s="30">
+      <c r="L13" s="25">
         <v>372.90899999999999</v>
       </c>
-      <c r="O13" s="25"/>
-      <c r="Q13" s="25">
+      <c r="O13" s="21"/>
+      <c r="Q13" s="21">
         <v>11</v>
       </c>
-      <c r="R13" s="25" t="s">
+      <c r="R13" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="S13" s="25" t="s">
+      <c r="S13" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="T13" s="25" t="s">
+      <c r="T13" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="U13" s="26">
+      <c r="U13" s="22">
         <v>1.647</v>
       </c>
-      <c r="V13" s="26">
+      <c r="V13" s="22">
         <v>2.3276690000000002</v>
       </c>
-      <c r="W13" s="26">
+      <c r="W13" s="22">
         <v>2.4766490000000001</v>
       </c>
-      <c r="X13" s="26">
+      <c r="X13" s="22">
         <v>22.517628999999999</v>
       </c>
-      <c r="Y13" s="26">
+      <c r="Y13" s="22">
         <v>26.344000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A14" s="25"/>
-      <c r="B14" s="30" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="25">
         <v>1.7470000000000001</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="25">
         <v>6.9051910000000003</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="25">
         <v>17.519749999999998</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="25">
         <v>40.817639999999997</v>
       </c>
-      <c r="G14" s="30">
+      <c r="G14" s="25">
         <v>512.00599999999997</v>
       </c>
-      <c r="H14" s="30">
+      <c r="H14" s="25">
         <v>1.923</v>
       </c>
-      <c r="I14" s="30">
+      <c r="I14" s="25">
         <v>6.8461379999999998</v>
       </c>
-      <c r="J14" s="30">
+      <c r="J14" s="25">
         <v>21.55142</v>
       </c>
-      <c r="K14" s="30">
+      <c r="K14" s="25">
         <v>45.452330000000003</v>
       </c>
-      <c r="L14" s="30">
+      <c r="L14" s="25">
         <v>781.29</v>
       </c>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25">
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21">
         <v>12</v>
       </c>
-      <c r="R15" s="25" t="s">
+      <c r="R15" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="S15" s="25" t="s">
+      <c r="S15" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="T15" s="25" t="s">
+      <c r="T15" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="U15" s="26">
+      <c r="U15" s="22">
         <v>8.1910000000000007</v>
       </c>
-      <c r="V15" s="26">
+      <c r="V15" s="22">
         <v>9.9318179999999998</v>
       </c>
-      <c r="W15" s="26">
+      <c r="W15" s="22">
         <v>14.738341999999999</v>
       </c>
-      <c r="X15" s="26">
+      <c r="X15" s="22">
         <v>17.602153000000001</v>
       </c>
-      <c r="Y15" s="26">
+      <c r="Y15" s="22">
         <v>21.187000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29" t="s">
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25">
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21">
         <v>13</v>
       </c>
-      <c r="R16" s="25" t="s">
+      <c r="R16" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="S16" s="25" t="s">
+      <c r="S16" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="T16" s="25" t="s">
+      <c r="T16" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="U16" s="26">
+      <c r="U16" s="22">
         <v>7.2290000000000001</v>
       </c>
-      <c r="V16" s="26">
+      <c r="V16" s="22">
         <v>9.2281329999999997</v>
       </c>
-      <c r="W16" s="26">
+      <c r="W16" s="22">
         <v>14.193657999999999</v>
       </c>
-      <c r="X16" s="26">
+      <c r="X16" s="22">
         <v>15.382426000000001</v>
       </c>
-      <c r="Y16" s="26">
+      <c r="Y16" s="22">
         <v>20.198</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A17" s="25"/>
-      <c r="B17" s="28" t="s">
+      <c r="A17" s="21"/>
+      <c r="B17" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="F17" s="28" t="s">
+      <c r="F17" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="G17" s="28" t="s">
+      <c r="G17" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="H17" s="28" t="s">
+      <c r="H17" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="I17" s="28" t="s">
+      <c r="I17" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="J17" s="28" t="s">
+      <c r="J17" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="K17" s="28" t="s">
+      <c r="K17" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="L17" s="28" t="s">
+      <c r="L17" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25">
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21">
         <v>14</v>
       </c>
-      <c r="R17" s="25" t="s">
+      <c r="R17" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="S17" s="25" t="s">
+      <c r="S17" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="T17" s="25" t="s">
+      <c r="T17" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="U17" s="26">
+      <c r="U17" s="22">
         <v>4.5469999999999997</v>
       </c>
-      <c r="V17" s="26">
+      <c r="V17" s="22">
         <v>6.0395120000000002</v>
       </c>
-      <c r="W17" s="26">
+      <c r="W17" s="22">
         <v>9.7330550000000002</v>
       </c>
-      <c r="X17" s="26">
+      <c r="X17" s="22">
         <v>10.013590000000001</v>
       </c>
-      <c r="Y17" s="26">
+      <c r="Y17" s="22">
         <v>14.657</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A18" s="25"/>
-      <c r="B18" s="30" t="s">
+      <c r="A18" s="21"/>
+      <c r="B18" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="32">
+      <c r="C18" s="27">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="D18" s="32">
+      <c r="D18" s="27">
         <v>0.57281179999999998</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="27">
         <v>2.516073</v>
       </c>
-      <c r="F18" s="32">
+      <c r="F18" s="27">
         <v>10.437239999999999</v>
       </c>
-      <c r="G18" s="32">
+      <c r="G18" s="27">
         <v>37.283999999999999</v>
       </c>
-      <c r="H18" s="32">
+      <c r="H18" s="27">
         <v>0.01</v>
       </c>
-      <c r="I18" s="32">
+      <c r="I18" s="27">
         <v>11.498208699999999</v>
       </c>
-      <c r="J18" s="32">
+      <c r="J18" s="27">
         <v>31.939682000000001</v>
       </c>
-      <c r="K18" s="32">
+      <c r="K18" s="27">
         <v>46.839919999999999</v>
       </c>
-      <c r="L18" s="32">
+      <c r="L18" s="27">
         <v>72.287999999999997</v>
       </c>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25">
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21">
         <v>15</v>
       </c>
-      <c r="R18" s="25" t="s">
+      <c r="R18" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="S18" s="25" t="s">
+      <c r="S18" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="T18" s="25" t="s">
+      <c r="T18" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="U18" s="26">
+      <c r="U18" s="22">
         <v>3.3330000000000002</v>
       </c>
-      <c r="V18" s="26">
+      <c r="V18" s="22">
         <v>3.8738389999999998</v>
       </c>
-      <c r="W18" s="26">
+      <c r="W18" s="22">
         <v>6.3967770000000002</v>
       </c>
-      <c r="X18" s="26">
+      <c r="X18" s="22">
         <v>9.9609349999999992</v>
       </c>
-      <c r="Y18" s="26">
+      <c r="Y18" s="22">
         <v>10.237</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A19" s="25"/>
-      <c r="B19" s="30" t="s">
+      <c r="A19" s="21"/>
+      <c r="B19" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="32">
+      <c r="C19" s="27">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="D19" s="32">
+      <c r="D19" s="27">
         <v>9.7029464999999995</v>
       </c>
-      <c r="E19" s="32">
+      <c r="E19" s="27">
         <v>17.879031999999999</v>
       </c>
-      <c r="F19" s="32">
+      <c r="F19" s="27">
         <v>25.601040000000001</v>
       </c>
-      <c r="G19" s="32">
+      <c r="G19" s="27">
         <v>37.628</v>
       </c>
-      <c r="H19" s="32">
+      <c r="H19" s="27">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="I19" s="32">
+      <c r="I19" s="27">
         <v>0.76430279999999995</v>
       </c>
-      <c r="J19" s="32">
+      <c r="J19" s="27">
         <v>3.681003</v>
       </c>
-      <c r="K19" s="32">
+      <c r="K19" s="27">
         <v>7.0051800000000002</v>
       </c>
-      <c r="L19" s="32">
+      <c r="L19" s="27">
         <v>47.423000000000002</v>
       </c>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25">
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21">
         <v>16</v>
       </c>
-      <c r="R19" s="25" t="s">
+      <c r="R19" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="S19" s="25" t="s">
+      <c r="S19" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="T19" s="25" t="s">
+      <c r="T19" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="U19" s="26">
+      <c r="U19" s="22">
         <v>2.327</v>
       </c>
-      <c r="V19" s="26">
+      <c r="V19" s="22">
         <v>2.72201</v>
       </c>
-      <c r="W19" s="26">
+      <c r="W19" s="22">
         <v>4.4782400000000004</v>
       </c>
-      <c r="X19" s="26">
+      <c r="X19" s="22">
         <v>10.640527000000001</v>
       </c>
-      <c r="Y19" s="26">
+      <c r="Y19" s="22">
         <v>10.989000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A20" s="25"/>
-      <c r="B20" s="30" t="s">
+      <c r="A20" s="21"/>
+      <c r="B20" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="32">
+      <c r="C20" s="27">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="D20" s="32">
+      <c r="D20" s="27">
         <v>29.1941214</v>
       </c>
-      <c r="E20" s="32">
+      <c r="E20" s="27">
         <v>36.424739000000002</v>
       </c>
-      <c r="F20" s="32">
+      <c r="F20" s="27">
         <v>43.572839999999999</v>
       </c>
-      <c r="G20" s="32">
+      <c r="G20" s="27">
         <v>64.396000000000001</v>
       </c>
-      <c r="H20" s="32">
+      <c r="H20" s="27">
         <v>1.4E-2</v>
       </c>
-      <c r="I20" s="32">
+      <c r="I20" s="27">
         <v>17.568372700000001</v>
       </c>
-      <c r="J20" s="32">
+      <c r="J20" s="27">
         <v>30.065193000000001</v>
       </c>
-      <c r="K20" s="32">
+      <c r="K20" s="27">
         <v>39.785589999999999</v>
       </c>
-      <c r="L20" s="32">
+      <c r="L20" s="27">
         <v>63.627000000000002</v>
       </c>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25">
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21">
         <v>17</v>
       </c>
-      <c r="R20" s="25" t="s">
+      <c r="R20" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="S20" s="25" t="s">
+      <c r="S20" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="T20" s="25" t="s">
+      <c r="T20" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="U20" s="26">
+      <c r="U20" s="22">
         <v>1.982</v>
       </c>
-      <c r="V20" s="26">
+      <c r="V20" s="22">
         <v>2.000683</v>
       </c>
-      <c r="W20" s="26">
+      <c r="W20" s="22">
         <v>2.7604760000000002</v>
       </c>
-      <c r="X20" s="26">
+      <c r="X20" s="22">
         <v>5.9289170000000002</v>
       </c>
-      <c r="Y20" s="26">
+      <c r="Y20" s="22">
         <v>10.238</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A21" s="25"/>
-      <c r="B21" s="30" t="s">
+      <c r="A21" s="21"/>
+      <c r="B21" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="32">
+      <c r="C21" s="27">
         <v>4.7E-2</v>
       </c>
-      <c r="D21" s="32">
+      <c r="D21" s="27">
         <v>38.078111499999999</v>
       </c>
-      <c r="E21" s="32">
+      <c r="E21" s="27">
         <v>59.638714999999998</v>
       </c>
-      <c r="F21" s="32">
+      <c r="F21" s="27">
         <v>69.301860000000005</v>
       </c>
-      <c r="G21" s="32">
+      <c r="G21" s="27">
         <v>95.97</v>
       </c>
-      <c r="H21" s="32">
+      <c r="H21" s="27">
         <v>0.35699999999999998</v>
       </c>
-      <c r="I21" s="32">
+      <c r="I21" s="27">
         <v>28.829806900000001</v>
       </c>
-      <c r="J21" s="32">
+      <c r="J21" s="27">
         <v>46.247196000000002</v>
       </c>
-      <c r="K21" s="32">
+      <c r="K21" s="27">
         <v>53.899209999999997</v>
       </c>
-      <c r="L21" s="32">
+      <c r="L21" s="27">
         <v>79.159000000000006</v>
       </c>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="25">
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21">
         <v>18</v>
       </c>
-      <c r="R21" s="25" t="s">
+      <c r="R21" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="S21" s="25" t="s">
+      <c r="S21" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="T21" s="25" t="s">
+      <c r="T21" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="U21" s="26">
+      <c r="U21" s="22">
         <v>2.4239999999999999</v>
       </c>
-      <c r="V21" s="26">
+      <c r="V21" s="22">
         <v>2.9338470000000001</v>
       </c>
-      <c r="W21" s="26">
+      <c r="W21" s="22">
         <v>3.212113</v>
       </c>
-      <c r="X21" s="26">
+      <c r="X21" s="22">
         <v>3.7710499999999998</v>
       </c>
-      <c r="Y21" s="26">
+      <c r="Y21" s="22">
         <v>7.46</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A22" s="25"/>
-      <c r="B22" s="30" t="s">
+      <c r="A22" s="21"/>
+      <c r="B22" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="32">
+      <c r="C22" s="27">
         <v>1.173</v>
       </c>
-      <c r="D22" s="32">
+      <c r="D22" s="27">
         <v>56.391757300000002</v>
       </c>
-      <c r="E22" s="32">
+      <c r="E22" s="27">
         <v>70.140660999999994</v>
       </c>
-      <c r="F22" s="32">
+      <c r="F22" s="27">
         <v>79.185490000000001</v>
       </c>
-      <c r="G22" s="32">
+      <c r="G22" s="27">
         <v>90.712999999999994</v>
       </c>
-      <c r="H22" s="32">
+      <c r="H22" s="27">
         <v>0</v>
       </c>
-      <c r="I22" s="32">
+      <c r="I22" s="27">
         <v>44.511127600000002</v>
       </c>
-      <c r="J22" s="32">
+      <c r="J22" s="27">
         <v>66.26258</v>
       </c>
-      <c r="K22" s="32">
+      <c r="K22" s="27">
         <v>73.819550000000007</v>
       </c>
-      <c r="L22" s="32">
+      <c r="L22" s="27">
         <v>90.593999999999994</v>
       </c>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="25">
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21">
         <v>19</v>
       </c>
-      <c r="R22" s="25" t="s">
+      <c r="R22" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="S22" s="25" t="s">
+      <c r="S22" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="T22" s="25" t="s">
+      <c r="T22" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="U22" s="26">
+      <c r="U22" s="22">
         <v>5.6849999999999996</v>
       </c>
-      <c r="V22" s="26">
+      <c r="V22" s="22">
         <v>5.7307119999999996</v>
       </c>
-      <c r="W22" s="26">
+      <c r="W22" s="22">
         <v>5.7980590000000003</v>
       </c>
-      <c r="X22" s="26">
+      <c r="X22" s="22">
         <v>6.087993</v>
       </c>
-      <c r="Y22" s="26">
+      <c r="Y22" s="22">
         <v>9.4019999999999992</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A23" s="25"/>
-      <c r="B23" s="30" t="s">
+      <c r="A23" s="21"/>
+      <c r="B23" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="32">
+      <c r="C23" s="27">
         <v>2.4E-2</v>
       </c>
-      <c r="D23" s="32">
+      <c r="D23" s="27">
         <v>55.7166742</v>
       </c>
-      <c r="E23" s="32">
+      <c r="E23" s="27">
         <v>64.684449000000001</v>
       </c>
-      <c r="F23" s="32">
+      <c r="F23" s="27">
         <v>76.80086</v>
       </c>
-      <c r="G23" s="32">
+      <c r="G23" s="27">
         <v>94.966999999999999</v>
       </c>
-      <c r="H23" s="32">
+      <c r="H23" s="27">
         <v>2E-3</v>
       </c>
-      <c r="I23" s="32">
+      <c r="I23" s="27">
         <v>47.3393266</v>
       </c>
-      <c r="J23" s="32">
+      <c r="J23" s="27">
         <v>64.902424999999994</v>
       </c>
-      <c r="K23" s="32">
+      <c r="K23" s="27">
         <v>75.569419999999994</v>
       </c>
-      <c r="L23" s="32">
+      <c r="L23" s="27">
         <v>94.885000000000005</v>
       </c>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25">
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21">
         <v>20</v>
       </c>
-      <c r="R23" s="25" t="s">
+      <c r="R23" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="S23" s="25" t="s">
+      <c r="S23" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="T23" s="25" t="s">
+      <c r="T23" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="U23" s="26">
+      <c r="U23" s="22">
         <v>2.71</v>
       </c>
-      <c r="V23" s="26">
+      <c r="V23" s="22">
         <v>6.8610110000000004</v>
       </c>
-      <c r="W23" s="26">
+      <c r="W23" s="22">
         <v>7.0848800000000001</v>
       </c>
-      <c r="X23" s="26">
+      <c r="X23" s="22">
         <v>10.156824</v>
       </c>
-      <c r="Y23" s="26">
+      <c r="Y23" s="22">
         <v>11.693</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A24" s="25"/>
-      <c r="B24" s="30" t="s">
+      <c r="A24" s="21"/>
+      <c r="B24" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="32">
+      <c r="C24" s="27">
         <v>0.74199999999999999</v>
       </c>
-      <c r="D24" s="32">
+      <c r="D24" s="27">
         <v>56.794240899999998</v>
       </c>
-      <c r="E24" s="32">
+      <c r="E24" s="27">
         <v>67.787008</v>
       </c>
-      <c r="F24" s="32">
+      <c r="F24" s="27">
         <v>74.639340000000004</v>
       </c>
-      <c r="G24" s="32">
+      <c r="G24" s="27">
         <v>91.153000000000006</v>
       </c>
-      <c r="H24" s="32">
+      <c r="H24" s="27">
         <v>0.95899999999999996</v>
       </c>
-      <c r="I24" s="32">
+      <c r="I24" s="27">
         <v>44.080518499999997</v>
       </c>
-      <c r="J24" s="32">
+      <c r="J24" s="27">
         <v>65.371612999999996</v>
       </c>
-      <c r="K24" s="32">
+      <c r="K24" s="27">
         <v>75.631960000000007</v>
       </c>
-      <c r="L24" s="32">
+      <c r="L24" s="27">
         <v>90.436999999999998</v>
       </c>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25">
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21">
         <v>21</v>
       </c>
-      <c r="R24" s="25" t="s">
+      <c r="R24" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="S24" s="25" t="s">
+      <c r="S24" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="T24" s="25" t="s">
+      <c r="T24" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="U24" s="26">
+      <c r="U24" s="22">
         <v>2.0470000000000002</v>
       </c>
-      <c r="V24" s="26">
+      <c r="V24" s="22">
         <v>2.5564460000000002</v>
       </c>
-      <c r="W24" s="26">
+      <c r="W24" s="22">
         <v>4.3137990000000004</v>
       </c>
-      <c r="X24" s="26">
+      <c r="X24" s="22">
         <v>9.2597710000000006</v>
       </c>
-      <c r="Y24" s="26">
+      <c r="Y24" s="22">
         <v>11.361000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A25" s="25"/>
-      <c r="B25" s="30" t="s">
+      <c r="A25" s="21"/>
+      <c r="B25" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="C25" s="32">
+      <c r="C25" s="27">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="D25" s="32">
+      <c r="D25" s="27">
         <v>43.270198000000001</v>
       </c>
-      <c r="E25" s="32">
+      <c r="E25" s="27">
         <v>63.059161000000003</v>
       </c>
-      <c r="F25" s="32">
+      <c r="F25" s="27">
         <v>73.493539999999996</v>
       </c>
-      <c r="G25" s="32">
+      <c r="G25" s="27">
         <v>87.923000000000002</v>
       </c>
-      <c r="H25" s="32">
+      <c r="H25" s="27">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="I25" s="32">
+      <c r="I25" s="27">
         <v>33.455106000000001</v>
       </c>
-      <c r="J25" s="32">
+      <c r="J25" s="27">
         <v>60.794741000000002</v>
       </c>
-      <c r="K25" s="32">
+      <c r="K25" s="27">
         <v>71.094700000000003</v>
       </c>
-      <c r="L25" s="32">
+      <c r="L25" s="27">
         <v>86.445999999999998</v>
       </c>
-      <c r="Q25" s="25">
+      <c r="Q25" s="21">
         <v>22</v>
       </c>
-      <c r="R25" s="25" t="s">
+      <c r="R25" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="S25" s="25" t="s">
+      <c r="S25" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="T25" s="25" t="s">
+      <c r="T25" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="U25" s="26">
+      <c r="U25" s="22">
         <v>1.6839999999999999</v>
       </c>
-      <c r="V25" s="26">
+      <c r="V25" s="22">
         <v>1.827963</v>
       </c>
-      <c r="W25" s="26">
+      <c r="W25" s="22">
         <v>2.7844669999999998</v>
       </c>
-      <c r="X25" s="26">
+      <c r="X25" s="22">
         <v>22.418880999999999</v>
       </c>
-      <c r="Y25" s="26">
+      <c r="Y25" s="22">
         <v>26.195</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A26" s="25"/>
-      <c r="B26" s="30" t="s">
+      <c r="A26" s="21"/>
+      <c r="B26" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="C26" s="32">
+      <c r="C26" s="27">
         <v>1.4470000000000001</v>
       </c>
-      <c r="D26" s="32">
+      <c r="D26" s="27">
         <v>28.594325600000001</v>
       </c>
-      <c r="E26" s="32">
+      <c r="E26" s="27">
         <v>59.130966000000001</v>
       </c>
-      <c r="F26" s="32">
+      <c r="F26" s="27">
         <v>67.866630000000001</v>
       </c>
-      <c r="G26" s="32">
+      <c r="G26" s="27">
         <v>95.989000000000004</v>
       </c>
-      <c r="H26" s="32">
+      <c r="H26" s="27">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="I26" s="32">
+      <c r="I26" s="27">
         <v>18.8524691</v>
       </c>
-      <c r="J26" s="32">
+      <c r="J26" s="27">
         <v>54.40887</v>
       </c>
-      <c r="K26" s="32">
+      <c r="K26" s="27">
         <v>66.037080000000003</v>
       </c>
-      <c r="L26" s="32">
+      <c r="L26" s="27">
         <v>93.094999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="32">
+      <c r="C27" s="27">
         <v>0.63500000000000001</v>
       </c>
-      <c r="D27" s="32">
+      <c r="D27" s="27">
         <v>26.225878300000002</v>
       </c>
-      <c r="E27" s="32">
+      <c r="E27" s="27">
         <v>44.781239999999997</v>
       </c>
-      <c r="F27" s="32">
+      <c r="F27" s="27">
         <v>69.080010000000001</v>
       </c>
-      <c r="G27" s="32">
+      <c r="G27" s="27">
         <v>87.956000000000003</v>
       </c>
-      <c r="H27" s="32">
+      <c r="H27" s="27">
         <v>0.157</v>
       </c>
-      <c r="I27" s="32">
+      <c r="I27" s="27">
         <v>14.653454999999999</v>
       </c>
-      <c r="J27" s="32">
+      <c r="J27" s="27">
         <v>44.366332999999997</v>
       </c>
-      <c r="K27" s="32">
+      <c r="K27" s="27">
         <v>63.870089999999998</v>
       </c>
-      <c r="L27" s="32">
+      <c r="L27" s="27">
         <v>87.039000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="32">
+      <c r="C28" s="27">
         <v>0.67</v>
       </c>
-      <c r="D28" s="32">
+      <c r="D28" s="27">
         <v>21.097779200000002</v>
       </c>
-      <c r="E28" s="32">
+      <c r="E28" s="27">
         <v>51.300784999999998</v>
       </c>
-      <c r="F28" s="32">
+      <c r="F28" s="27">
         <v>71.394350000000003</v>
       </c>
-      <c r="G28" s="32">
+      <c r="G28" s="27">
         <v>86.775000000000006</v>
       </c>
-      <c r="H28" s="32">
+      <c r="H28" s="27">
         <v>0.77</v>
       </c>
-      <c r="I28" s="32">
+      <c r="I28" s="27">
         <v>21.343914099999999</v>
       </c>
-      <c r="J28" s="32">
+      <c r="J28" s="27">
         <v>45.212614000000002</v>
       </c>
-      <c r="K28" s="32">
+      <c r="K28" s="27">
         <v>64.012950000000004</v>
       </c>
-      <c r="L28" s="32">
+      <c r="L28" s="27">
         <v>85.510999999999996</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29" t="s">
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="D31" s="28" t="s">
+      <c r="D31" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="E31" s="28" t="s">
+      <c r="E31" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="F31" s="28" t="s">
+      <c r="F31" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="G31" s="28" t="s">
+      <c r="G31" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="H31" s="28" t="s">
+      <c r="H31" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="I31" s="28" t="s">
+      <c r="I31" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="J31" s="28" t="s">
+      <c r="J31" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="K31" s="28" t="s">
+      <c r="K31" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="L31" s="28" t="s">
+      <c r="L31" s="24" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="C32" s="30">
+      <c r="C32" s="25">
         <v>20.722999999999999</v>
       </c>
-      <c r="D32" s="30">
+      <c r="D32" s="25">
         <v>31.462530000000001</v>
       </c>
-      <c r="E32" s="30">
+      <c r="E32" s="25">
         <v>44.109520000000003</v>
       </c>
-      <c r="F32" s="30">
+      <c r="F32" s="25">
         <v>78.651880000000006</v>
       </c>
-      <c r="G32" s="30">
+      <c r="G32" s="25">
         <v>127.03100000000001</v>
       </c>
-      <c r="H32" s="30">
+      <c r="H32" s="25">
         <v>23.286000000000001</v>
       </c>
-      <c r="I32" s="30">
+      <c r="I32" s="25">
         <v>31.666679999999999</v>
       </c>
-      <c r="J32" s="30">
+      <c r="J32" s="25">
         <v>46.447580000000002</v>
       </c>
-      <c r="K32" s="30">
+      <c r="K32" s="25">
         <v>83.912260000000003</v>
       </c>
-      <c r="L32" s="30">
+      <c r="L32" s="25">
         <v>127.929</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="30">
+      <c r="C33" s="25">
         <v>18.681000000000001</v>
       </c>
-      <c r="D33" s="30">
+      <c r="D33" s="25">
         <v>26.89977</v>
       </c>
-      <c r="E33" s="30">
+      <c r="E33" s="25">
         <v>38.697189999999999</v>
       </c>
-      <c r="F33" s="30">
+      <c r="F33" s="25">
         <v>73.008870000000002</v>
       </c>
-      <c r="G33" s="30">
+      <c r="G33" s="25">
         <v>105.46</v>
       </c>
-      <c r="H33" s="30">
+      <c r="H33" s="25">
         <v>21.873000000000001</v>
       </c>
-      <c r="I33" s="30">
+      <c r="I33" s="25">
         <v>30.357199999999999</v>
       </c>
-      <c r="J33" s="30">
+      <c r="J33" s="25">
         <v>43.248429999999999</v>
       </c>
-      <c r="K33" s="30">
+      <c r="K33" s="25">
         <v>83.011780000000002</v>
       </c>
-      <c r="L33" s="30">
+      <c r="L33" s="25">
         <v>119.717</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="30">
+      <c r="C34" s="25">
         <v>16.786999999999999</v>
       </c>
-      <c r="D34" s="30">
+      <c r="D34" s="25">
         <v>23.617139999999999</v>
       </c>
-      <c r="E34" s="30">
+      <c r="E34" s="25">
         <v>35.506340000000002</v>
       </c>
-      <c r="F34" s="30">
+      <c r="F34" s="25">
         <v>63.058570000000003</v>
       </c>
-      <c r="G34" s="30">
+      <c r="G34" s="25">
         <v>95.927000000000007</v>
       </c>
-      <c r="H34" s="30">
+      <c r="H34" s="25">
         <v>16.882999999999999</v>
       </c>
-      <c r="I34" s="30">
+      <c r="I34" s="25">
         <v>25.471969999999999</v>
       </c>
-      <c r="J34" s="30">
+      <c r="J34" s="25">
         <v>37.076099999999997</v>
       </c>
-      <c r="K34" s="30">
+      <c r="K34" s="25">
         <v>71.423339999999996</v>
       </c>
-      <c r="L34" s="30">
+      <c r="L34" s="25">
         <v>106.65900000000001</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="C35" s="30">
+      <c r="C35" s="25">
         <v>13.760999999999999</v>
       </c>
-      <c r="D35" s="30">
+      <c r="D35" s="25">
         <v>20.687470000000001</v>
       </c>
-      <c r="E35" s="30">
+      <c r="E35" s="25">
         <v>29.963619999999999</v>
       </c>
-      <c r="F35" s="30">
+      <c r="F35" s="25">
         <v>37.632680000000001</v>
       </c>
-      <c r="G35" s="30">
+      <c r="G35" s="25">
         <v>80.316999999999993</v>
       </c>
-      <c r="H35" s="30">
+      <c r="H35" s="25">
         <v>13.714</v>
       </c>
-      <c r="I35" s="30">
+      <c r="I35" s="25">
         <v>24.111499999999999</v>
       </c>
-      <c r="J35" s="30">
+      <c r="J35" s="25">
         <v>33.945500000000003</v>
       </c>
-      <c r="K35" s="30">
+      <c r="K35" s="25">
         <v>59.405349999999999</v>
       </c>
-      <c r="L35" s="30">
+      <c r="L35" s="25">
         <v>87.629000000000005</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="30">
+      <c r="C36" s="25">
         <v>11.875999999999999</v>
       </c>
-      <c r="D36" s="30">
+      <c r="D36" s="25">
         <v>18.450510000000001</v>
       </c>
-      <c r="E36" s="30">
+      <c r="E36" s="25">
         <v>26.940619999999999</v>
       </c>
-      <c r="F36" s="30">
+      <c r="F36" s="25">
         <v>39.798090000000002</v>
       </c>
-      <c r="G36" s="30">
+      <c r="G36" s="25">
         <v>79.924999999999997</v>
       </c>
-      <c r="H36" s="30">
+      <c r="H36" s="25">
         <v>12.596</v>
       </c>
-      <c r="I36" s="30">
+      <c r="I36" s="25">
         <v>21.135739999999998</v>
       </c>
-      <c r="J36" s="30">
+      <c r="J36" s="25">
         <v>30.76709</v>
       </c>
-      <c r="K36" s="30">
+      <c r="K36" s="25">
         <v>45.220230000000001</v>
       </c>
-      <c r="L36" s="30">
+      <c r="L36" s="25">
         <v>79.853999999999999</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="30">
+      <c r="C37" s="25">
         <v>11.81</v>
       </c>
-      <c r="D37" s="30">
+      <c r="D37" s="25">
         <v>19.241980000000002</v>
       </c>
-      <c r="E37" s="30">
+      <c r="E37" s="25">
         <v>31.246569999999998</v>
       </c>
-      <c r="F37" s="30">
+      <c r="F37" s="25">
         <v>50.793430000000001</v>
       </c>
-      <c r="G37" s="30">
+      <c r="G37" s="25">
         <v>133.27699999999999</v>
       </c>
-      <c r="H37" s="30">
+      <c r="H37" s="25">
         <v>11.677</v>
       </c>
-      <c r="I37" s="30">
+      <c r="I37" s="25">
         <v>20.409140000000001</v>
       </c>
-      <c r="J37" s="30">
+      <c r="J37" s="25">
         <v>32.553040000000003</v>
       </c>
-      <c r="K37" s="30">
+      <c r="K37" s="25">
         <v>48.637830000000001</v>
       </c>
-      <c r="L37" s="30">
+      <c r="L37" s="25">
         <v>126.57299999999999</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="C38" s="30">
+      <c r="C38" s="25">
         <v>12.613</v>
       </c>
-      <c r="D38" s="30">
+      <c r="D38" s="25">
         <v>21.174980000000001</v>
       </c>
-      <c r="E38" s="30">
+      <c r="E38" s="25">
         <v>28.295380000000002</v>
       </c>
-      <c r="F38" s="30">
+      <c r="F38" s="25">
         <v>55.315779999999997</v>
       </c>
-      <c r="G38" s="30">
+      <c r="G38" s="25">
         <v>195.779</v>
       </c>
-      <c r="H38" s="30">
+      <c r="H38" s="25">
         <v>12.656000000000001</v>
       </c>
-      <c r="I38" s="30">
+      <c r="I38" s="25">
         <v>22.097049999999999</v>
       </c>
-      <c r="J38" s="30">
+      <c r="J38" s="25">
         <v>33.389279999999999</v>
       </c>
-      <c r="K38" s="30">
+      <c r="K38" s="25">
         <v>52.517249999999997</v>
       </c>
-      <c r="L38" s="30">
+      <c r="L38" s="25">
         <v>197.703</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="30">
+      <c r="C39" s="25">
         <v>14.986000000000001</v>
       </c>
-      <c r="D39" s="30">
+      <c r="D39" s="25">
         <v>24.820869999999999</v>
       </c>
-      <c r="E39" s="30">
+      <c r="E39" s="25">
         <v>35.262529999999998</v>
       </c>
-      <c r="F39" s="30">
+      <c r="F39" s="25">
         <v>53.117550000000001</v>
       </c>
-      <c r="G39" s="30">
+      <c r="G39" s="25">
         <v>156.018</v>
       </c>
-      <c r="H39" s="30">
+      <c r="H39" s="25">
         <v>14.118</v>
       </c>
-      <c r="I39" s="30">
+      <c r="I39" s="25">
         <v>23.607050000000001</v>
       </c>
-      <c r="J39" s="30">
+      <c r="J39" s="25">
         <v>35.166060000000002</v>
       </c>
-      <c r="K39" s="30">
+      <c r="K39" s="25">
         <v>55.463749999999997</v>
       </c>
-      <c r="L39" s="30">
+      <c r="L39" s="25">
         <v>132.89599999999999</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="C40" s="30">
+      <c r="C40" s="25">
         <v>16.071000000000002</v>
       </c>
-      <c r="D40" s="30">
+      <c r="D40" s="25">
         <v>23.941949999999999</v>
       </c>
-      <c r="E40" s="30">
+      <c r="E40" s="25">
         <v>31.685220000000001</v>
       </c>
-      <c r="F40" s="30">
+      <c r="F40" s="25">
         <v>49.189610000000002</v>
       </c>
-      <c r="G40" s="30">
+      <c r="G40" s="25">
         <v>129.14699999999999</v>
       </c>
-      <c r="H40" s="30">
+      <c r="H40" s="25">
         <v>16.129000000000001</v>
       </c>
-      <c r="I40" s="30">
+      <c r="I40" s="25">
         <v>25.991540000000001</v>
       </c>
-      <c r="J40" s="30">
+      <c r="J40" s="25">
         <v>39.178350000000002</v>
       </c>
-      <c r="K40" s="30">
+      <c r="K40" s="25">
         <v>50.34545</v>
       </c>
-      <c r="L40" s="30">
+      <c r="L40" s="25">
         <v>209.876</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="30">
+      <c r="C41" s="25">
         <v>14.608000000000001</v>
       </c>
-      <c r="D41" s="30">
+      <c r="D41" s="25">
         <v>21.83154</v>
       </c>
-      <c r="E41" s="30">
+      <c r="E41" s="25">
         <v>28.52094</v>
       </c>
-      <c r="F41" s="30">
+      <c r="F41" s="25">
         <v>44.723750000000003</v>
       </c>
-      <c r="G41" s="30">
+      <c r="G41" s="25">
         <v>134.35599999999999</v>
       </c>
-      <c r="H41" s="30">
+      <c r="H41" s="25">
         <v>15.757999999999999</v>
       </c>
-      <c r="I41" s="30">
+      <c r="I41" s="25">
         <v>20.92099</v>
       </c>
-      <c r="J41" s="30">
+      <c r="J41" s="25">
         <v>33.82676</v>
       </c>
-      <c r="K41" s="30">
+      <c r="K41" s="25">
         <v>47.109490000000001</v>
       </c>
-      <c r="L41" s="30">
+      <c r="L41" s="25">
         <v>196.41800000000001</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="30">
+      <c r="C42" s="25">
         <v>14.215999999999999</v>
       </c>
-      <c r="D42" s="30">
+      <c r="D42" s="25">
         <v>21.261949999999999</v>
       </c>
-      <c r="E42" s="30">
+      <c r="E42" s="25">
         <v>28.766480000000001</v>
       </c>
-      <c r="F42" s="30">
+      <c r="F42" s="25">
         <v>40.528939999999999</v>
       </c>
-      <c r="G42" s="30">
+      <c r="G42" s="25">
         <v>112.952</v>
       </c>
-      <c r="H42" s="30">
+      <c r="H42" s="25">
         <v>15.082000000000001</v>
       </c>
-      <c r="I42" s="30">
+      <c r="I42" s="25">
         <v>23.14676</v>
       </c>
-      <c r="J42" s="30">
+      <c r="J42" s="25">
         <v>31.88946</v>
       </c>
-      <c r="K42" s="30">
+      <c r="K42" s="25">
         <v>42.137929999999997</v>
       </c>
-      <c r="L42" s="30">
+      <c r="L42" s="25">
         <v>113.127</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="29" t="s">
+      <c r="C44" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29" t="s">
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="29"/>
-      <c r="L44" s="29"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="40"/>
+      <c r="L44" s="40"/>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="C45" s="28" t="s">
+      <c r="C45" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="D45" s="28" t="s">
+      <c r="D45" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="E45" s="28" t="s">
+      <c r="E45" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="F45" s="28" t="s">
+      <c r="F45" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="G45" s="28" t="s">
+      <c r="G45" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="H45" s="28" t="s">
+      <c r="H45" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="I45" s="28" t="s">
+      <c r="I45" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="J45" s="28" t="s">
+      <c r="J45" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="K45" s="28" t="s">
+      <c r="K45" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="L45" s="28" t="s">
+      <c r="L45" s="24" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B46" s="30" t="s">
+      <c r="B46" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="C46" s="30">
+      <c r="C46" s="25">
         <v>28.195</v>
       </c>
-      <c r="D46" s="30">
+      <c r="D46" s="25">
         <v>39.712339999999998</v>
       </c>
-      <c r="E46" s="30">
+      <c r="E46" s="25">
         <v>56.813339999999997</v>
       </c>
-      <c r="F46" s="30">
+      <c r="F46" s="25">
         <v>106.00998</v>
       </c>
-      <c r="G46" s="30">
+      <c r="G46" s="25">
         <v>161.816</v>
       </c>
-      <c r="H46" s="30">
+      <c r="H46" s="25">
         <v>30.077999999999999</v>
       </c>
-      <c r="I46" s="30">
+      <c r="I46" s="25">
         <v>39.847999999999999</v>
       </c>
-      <c r="J46" s="30">
+      <c r="J46" s="25">
         <v>61.380450000000003</v>
       </c>
-      <c r="K46" s="30">
+      <c r="K46" s="25">
         <v>109.74965</v>
       </c>
-      <c r="L46" s="30">
+      <c r="L46" s="25">
         <v>164.38800000000001</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="C47" s="30">
+      <c r="C47" s="25">
         <v>24.36</v>
       </c>
-      <c r="D47" s="30">
+      <c r="D47" s="25">
         <v>33.632640000000002</v>
       </c>
-      <c r="E47" s="30">
+      <c r="E47" s="25">
         <v>52.243830000000003</v>
       </c>
-      <c r="F47" s="30">
+      <c r="F47" s="25">
         <v>97.024379999999994</v>
       </c>
-      <c r="G47" s="30">
+      <c r="G47" s="25">
         <v>140.97800000000001</v>
       </c>
-      <c r="H47" s="30">
+      <c r="H47" s="25">
         <v>28.600999999999999</v>
       </c>
-      <c r="I47" s="30">
+      <c r="I47" s="25">
         <v>38.718539999999997</v>
       </c>
-      <c r="J47" s="30">
+      <c r="J47" s="25">
         <v>55.551020000000001</v>
       </c>
-      <c r="K47" s="30">
+      <c r="K47" s="25">
         <v>109.07492999999999</v>
       </c>
-      <c r="L47" s="30">
+      <c r="L47" s="25">
         <v>157.80099999999999</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B48" s="30" t="s">
+      <c r="B48" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="C48" s="30">
+      <c r="C48" s="25">
         <v>21.253</v>
       </c>
-      <c r="D48" s="30">
+      <c r="D48" s="25">
         <v>29.25731</v>
       </c>
-      <c r="E48" s="30">
+      <c r="E48" s="25">
         <v>50.349040000000002</v>
       </c>
-      <c r="F48" s="30">
+      <c r="F48" s="25">
         <v>85.132639999999995</v>
       </c>
-      <c r="G48" s="30">
+      <c r="G48" s="25">
         <v>135.88999999999999</v>
       </c>
-      <c r="H48" s="30">
+      <c r="H48" s="25">
         <v>21.86</v>
       </c>
-      <c r="I48" s="30">
+      <c r="I48" s="25">
         <v>32.090060000000001</v>
       </c>
-      <c r="J48" s="30">
+      <c r="J48" s="25">
         <v>53.677759999999999</v>
       </c>
-      <c r="K48" s="30">
+      <c r="K48" s="25">
         <v>96.991749999999996</v>
       </c>
-      <c r="L48" s="30">
+      <c r="L48" s="25">
         <v>145.202</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B49" s="30" t="s">
+      <c r="B49" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="30">
+      <c r="C49" s="25">
         <v>18.437999999999999</v>
       </c>
-      <c r="D49" s="30">
+      <c r="D49" s="25">
         <v>27.87763</v>
       </c>
-      <c r="E49" s="30">
+      <c r="E49" s="25">
         <v>40.167920000000002</v>
       </c>
-      <c r="F49" s="30">
+      <c r="F49" s="25">
         <v>59.440080000000002</v>
       </c>
-      <c r="G49" s="30">
+      <c r="G49" s="25">
         <v>119.627</v>
       </c>
-      <c r="H49" s="30">
+      <c r="H49" s="25">
         <v>18.516999999999999</v>
       </c>
-      <c r="I49" s="30">
+      <c r="I49" s="25">
         <v>30.364999999999998</v>
       </c>
-      <c r="J49" s="30">
+      <c r="J49" s="25">
         <v>46.100630000000002</v>
       </c>
-      <c r="K49" s="30">
+      <c r="K49" s="25">
         <v>86.763360000000006</v>
       </c>
-      <c r="L49" s="30">
+      <c r="L49" s="25">
         <v>139.51499999999999</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B50" s="30" t="s">
+      <c r="B50" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C50" s="30">
+      <c r="C50" s="25">
         <v>15.086</v>
       </c>
-      <c r="D50" s="30">
+      <c r="D50" s="25">
         <v>24.430759999999999</v>
       </c>
-      <c r="E50" s="30">
+      <c r="E50" s="25">
         <v>38.13982</v>
       </c>
-      <c r="F50" s="30">
+      <c r="F50" s="25">
         <v>61.879190000000001</v>
       </c>
-      <c r="G50" s="30">
+      <c r="G50" s="25">
         <v>129.06800000000001</v>
       </c>
-      <c r="H50" s="30">
+      <c r="H50" s="25">
         <v>15.558</v>
       </c>
-      <c r="I50" s="30">
+      <c r="I50" s="25">
         <v>27.21772</v>
       </c>
-      <c r="J50" s="30">
+      <c r="J50" s="25">
         <v>42.14152</v>
       </c>
-      <c r="K50" s="30">
+      <c r="K50" s="25">
         <v>65.636319999999998</v>
       </c>
-      <c r="L50" s="30">
+      <c r="L50" s="25">
         <v>120.252</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B51" s="30" t="s">
+      <c r="B51" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="C51" s="30">
+      <c r="C51" s="25">
         <v>14.375</v>
       </c>
-      <c r="D51" s="30">
+      <c r="D51" s="25">
         <v>24.891159999999999</v>
       </c>
-      <c r="E51" s="30">
+      <c r="E51" s="25">
         <v>50.801000000000002</v>
       </c>
-      <c r="F51" s="30">
+      <c r="F51" s="25">
         <v>82.322519999999997</v>
       </c>
-      <c r="G51" s="30">
+      <c r="G51" s="25">
         <v>204.77500000000001</v>
       </c>
-      <c r="H51" s="30">
+      <c r="H51" s="25">
         <v>14.295</v>
       </c>
-      <c r="I51" s="30">
+      <c r="I51" s="25">
         <v>25.736059999999998</v>
       </c>
-      <c r="J51" s="30">
+      <c r="J51" s="25">
         <v>51.251609999999999</v>
       </c>
-      <c r="K51" s="30">
+      <c r="K51" s="25">
         <v>73.845740000000006</v>
       </c>
-      <c r="L51" s="30">
+      <c r="L51" s="25">
         <v>196.60900000000001</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B52" s="30" t="s">
+      <c r="B52" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="C52" s="30">
+      <c r="C52" s="25">
         <v>15.76</v>
       </c>
-      <c r="D52" s="30">
+      <c r="D52" s="25">
         <v>27.09591</v>
       </c>
-      <c r="E52" s="30">
+      <c r="E52" s="25">
         <v>46.614269999999998</v>
       </c>
-      <c r="F52" s="30">
+      <c r="F52" s="25">
         <v>84.685559999999995</v>
       </c>
-      <c r="G52" s="30">
+      <c r="G52" s="25">
         <v>290.74400000000003</v>
       </c>
-      <c r="H52" s="30">
+      <c r="H52" s="25">
         <v>15.82</v>
       </c>
-      <c r="I52" s="30">
+      <c r="I52" s="25">
         <v>30.306370000000001</v>
       </c>
-      <c r="J52" s="30">
+      <c r="J52" s="25">
         <v>50.89087</v>
       </c>
-      <c r="K52" s="30">
+      <c r="K52" s="25">
         <v>78.647170000000003</v>
       </c>
-      <c r="L52" s="30">
+      <c r="L52" s="25">
         <v>291.279</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B53" s="30" t="s">
+      <c r="B53" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="C53" s="30">
+      <c r="C53" s="25">
         <v>18.026</v>
       </c>
-      <c r="D53" s="30">
+      <c r="D53" s="25">
         <v>34.62735</v>
       </c>
-      <c r="E53" s="30">
+      <c r="E53" s="25">
         <v>50.910679999999999</v>
       </c>
-      <c r="F53" s="30">
+      <c r="F53" s="25">
         <v>83.250879999999995</v>
       </c>
-      <c r="G53" s="30">
+      <c r="G53" s="25">
         <v>236.27500000000001</v>
       </c>
-      <c r="H53" s="30">
+      <c r="H53" s="25">
         <v>17.652999999999999</v>
       </c>
-      <c r="I53" s="30">
+      <c r="I53" s="25">
         <v>34.826709999999999</v>
       </c>
-      <c r="J53" s="30">
+      <c r="J53" s="25">
         <v>59.787179999999999</v>
       </c>
-      <c r="K53" s="30">
+      <c r="K53" s="25">
         <v>82.948009999999996</v>
       </c>
-      <c r="L53" s="30">
+      <c r="L53" s="25">
         <v>223.31399999999999</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B54" s="30" t="s">
+      <c r="B54" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="C54" s="30">
+      <c r="C54" s="25">
         <v>23.349</v>
       </c>
-      <c r="D54" s="30">
+      <c r="D54" s="25">
         <v>34.126660000000001</v>
       </c>
-      <c r="E54" s="30">
+      <c r="E54" s="25">
         <v>47.736969999999999</v>
       </c>
-      <c r="F54" s="30">
+      <c r="F54" s="25">
         <v>75.223619999999997</v>
       </c>
-      <c r="G54" s="30">
+      <c r="G54" s="25">
         <v>216.11799999999999</v>
       </c>
-      <c r="H54" s="30">
+      <c r="H54" s="25">
         <v>24.274999999999999</v>
       </c>
-      <c r="I54" s="30">
+      <c r="I54" s="25">
         <v>37.420839999999998</v>
       </c>
-      <c r="J54" s="30">
+      <c r="J54" s="25">
         <v>61.539790000000004</v>
       </c>
-      <c r="K54" s="30">
+      <c r="K54" s="25">
         <v>79.076359999999994</v>
       </c>
-      <c r="L54" s="30">
+      <c r="L54" s="25">
         <v>334.084</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B55" s="30" t="s">
+      <c r="B55" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="C55" s="30">
+      <c r="C55" s="25">
         <v>19.413</v>
       </c>
-      <c r="D55" s="30">
+      <c r="D55" s="25">
         <v>29.94192</v>
       </c>
-      <c r="E55" s="30">
+      <c r="E55" s="25">
         <v>46.001179999999998</v>
       </c>
-      <c r="F55" s="30">
+      <c r="F55" s="25">
         <v>68.45581</v>
       </c>
-      <c r="G55" s="30">
+      <c r="G55" s="25">
         <v>217.43600000000001</v>
       </c>
-      <c r="H55" s="30">
+      <c r="H55" s="25">
         <v>20.599</v>
       </c>
-      <c r="I55" s="30">
+      <c r="I55" s="25">
         <v>31.498860000000001</v>
       </c>
-      <c r="J55" s="30">
+      <c r="J55" s="25">
         <v>58.403449999999999</v>
       </c>
-      <c r="K55" s="30">
+      <c r="K55" s="25">
         <v>67.606409999999997</v>
       </c>
-      <c r="L55" s="30">
+      <c r="L55" s="25">
         <v>315.23599999999999</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B56" s="30" t="s">
+      <c r="B56" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="C56" s="30">
+      <c r="C56" s="25">
         <v>20.547999999999998</v>
       </c>
-      <c r="D56" s="30">
+      <c r="D56" s="25">
         <v>31.351209999999998</v>
       </c>
-      <c r="E56" s="30">
+      <c r="E56" s="25">
         <v>46.890079999999998</v>
       </c>
-      <c r="F56" s="30">
+      <c r="F56" s="25">
         <v>67.73648</v>
       </c>
-      <c r="G56" s="30">
+      <c r="G56" s="25">
         <v>186.56299999999999</v>
       </c>
-      <c r="H56" s="30">
+      <c r="H56" s="25">
         <v>20.471</v>
       </c>
-      <c r="I56" s="30">
+      <c r="I56" s="25">
         <v>34.339970000000001</v>
       </c>
-      <c r="J56" s="30">
+      <c r="J56" s="25">
         <v>47.831859999999999</v>
       </c>
-      <c r="K56" s="30">
+      <c r="K56" s="25">
         <v>68.202969999999993</v>
       </c>
-      <c r="L56" s="30">
+      <c r="L56" s="25">
         <v>186.512</v>
       </c>
     </row>
